--- a/小胡子装修清单.xlsx
+++ b/小胡子装修清单.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8380" yWindow="740" windowWidth="18440" windowHeight="11720" activeTab="3"/>
+    <workbookView xWindow="5980" yWindow="4220" windowWidth="20140" windowHeight="13400" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="装修清单" sheetId="1" r:id="rId1"/>
     <sheet name="建筑面积" sheetId="2" r:id="rId2"/>
     <sheet name="水电需求" sheetId="3" r:id="rId3"/>
-    <sheet name="小灰灰硬装" sheetId="4" r:id="rId4"/>
+    <sheet name="小灰灰" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="207">
   <si>
     <t>项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -795,6 +795,62 @@
   </si>
   <si>
     <t>总计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家庭背景音乐系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浴室挂架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨房挂件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晾衣杆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能猫眼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000+3200+400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角阀止逆阀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定制家具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>床</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙发组合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空调</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -805,7 +861,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -863,8 +919,56 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -919,6 +1023,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="63">
     <border>
@@ -1735,12 +1844,103 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1957,6 +2157,18 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="62" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1978,27 +2190,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2014,63 +2262,64 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="32">
+    <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="31" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="强调文字颜色 6" xfId="1" builtinId="49"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2540,7 +2789,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3823,7 +4072,7 @@
     </row>
     <row r="12" spans="4:23" ht="15" thickBot="1"/>
     <row r="13" spans="4:23">
-      <c r="N13" s="76">
+      <c r="N13" s="80">
         <v>3.3</v>
       </c>
       <c r="Q13" s="48" t="s">
@@ -3849,7 +4098,7 @@
       </c>
     </row>
     <row r="14" spans="4:23" ht="15" thickBot="1">
-      <c r="N14" s="77"/>
+      <c r="N14" s="81"/>
       <c r="Q14" s="51"/>
       <c r="R14" s="52"/>
       <c r="S14" s="52"/>
@@ -3859,10 +4108,10 @@
       <c r="W14" s="53"/>
     </row>
     <row r="15" spans="4:23">
-      <c r="D15" s="76">
+      <c r="D15" s="80">
         <v>2.75</v>
       </c>
-      <c r="N15" s="77"/>
+      <c r="N15" s="81"/>
       <c r="Q15" s="51"/>
       <c r="R15" s="52"/>
       <c r="S15" s="52"/>
@@ -3872,8 +4121,8 @@
       <c r="W15" s="53"/>
     </row>
     <row r="16" spans="4:23">
-      <c r="D16" s="77"/>
-      <c r="N16" s="77"/>
+      <c r="D16" s="81"/>
+      <c r="N16" s="81"/>
       <c r="Q16" s="51"/>
       <c r="R16" s="52"/>
       <c r="S16" s="52"/>
@@ -3883,8 +4132,8 @@
       <c r="W16" s="53"/>
     </row>
     <row r="17" spans="4:23" ht="15" thickBot="1">
-      <c r="D17" s="77"/>
-      <c r="N17" s="78"/>
+      <c r="D17" s="81"/>
+      <c r="N17" s="82"/>
       <c r="Q17" s="54"/>
       <c r="R17" s="55"/>
       <c r="S17" s="55"/>
@@ -3894,57 +4143,57 @@
       <c r="W17" s="56"/>
     </row>
     <row r="18" spans="4:23">
-      <c r="D18" s="77"/>
+      <c r="D18" s="81"/>
     </row>
     <row r="19" spans="4:23" ht="15" thickBot="1">
-      <c r="D19" s="78"/>
+      <c r="D19" s="82"/>
     </row>
     <row r="20" spans="4:23" ht="15" thickBot="1"/>
     <row r="21" spans="4:23">
-      <c r="N21" s="76">
+      <c r="N21" s="80">
         <v>4.2</v>
       </c>
     </row>
     <row r="22" spans="4:23" ht="15" thickBot="1">
-      <c r="N22" s="77"/>
+      <c r="N22" s="81"/>
     </row>
     <row r="23" spans="4:23">
-      <c r="D23" s="76">
+      <c r="D23" s="80">
         <v>3.4</v>
       </c>
-      <c r="N23" s="77"/>
+      <c r="N23" s="81"/>
     </row>
     <row r="24" spans="4:23">
-      <c r="D24" s="77"/>
-      <c r="N24" s="77"/>
+      <c r="D24" s="81"/>
+      <c r="N24" s="81"/>
     </row>
     <row r="25" spans="4:23">
-      <c r="D25" s="77"/>
-      <c r="N25" s="77"/>
+      <c r="D25" s="81"/>
+      <c r="N25" s="81"/>
     </row>
     <row r="26" spans="4:23" ht="15" thickBot="1">
-      <c r="D26" s="77"/>
-      <c r="N26" s="78"/>
+      <c r="D26" s="81"/>
+      <c r="N26" s="82"/>
     </row>
     <row r="27" spans="4:23" ht="15" thickBot="1">
-      <c r="D27" s="78"/>
+      <c r="D27" s="82"/>
     </row>
     <row r="37" spans="8:11" ht="15" thickBot="1"/>
     <row r="38" spans="8:11">
-      <c r="H38" s="72">
+      <c r="H38" s="76">
         <v>3.6</v>
       </c>
-      <c r="I38" s="73"/>
-      <c r="J38" s="72">
+      <c r="I38" s="77"/>
+      <c r="J38" s="76">
         <v>3.3</v>
       </c>
-      <c r="K38" s="73"/>
+      <c r="K38" s="77"/>
     </row>
     <row r="39" spans="8:11" ht="15" thickBot="1">
-      <c r="H39" s="74"/>
-      <c r="I39" s="75"/>
-      <c r="J39" s="74"/>
-      <c r="K39" s="75"/>
+      <c r="H39" s="78"/>
+      <c r="I39" s="79"/>
+      <c r="J39" s="78"/>
+      <c r="K39" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4025,7 +4274,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="20" customHeight="1">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="85" t="s">
         <v>101</v>
       </c>
       <c r="B2" s="57" t="s">
@@ -4037,29 +4286,29 @@
       <c r="D2" s="58" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="101" t="s">
+      <c r="E2" s="83" t="s">
         <v>109</v>
       </c>
-      <c r="F2" s="102">
+      <c r="F2" s="84">
         <v>1</v>
       </c>
-      <c r="G2" s="101" t="s">
+      <c r="G2" s="83" t="s">
         <v>106</v>
       </c>
-      <c r="H2" s="101" t="s">
+      <c r="H2" s="83" t="s">
         <v>108</v>
       </c>
-      <c r="I2" s="101" t="s">
+      <c r="I2" s="83" t="s">
         <v>107</v>
       </c>
-      <c r="J2" s="101">
+      <c r="J2" s="83">
         <v>1</v>
       </c>
       <c r="K2" s="57"/>
       <c r="L2" s="66"/>
     </row>
     <row r="3" spans="1:12" ht="20" customHeight="1">
-      <c r="A3" s="98"/>
+      <c r="A3" s="86"/>
       <c r="B3" s="57" t="s">
         <v>104</v>
       </c>
@@ -4069,17 +4318,17 @@
       <c r="D3" s="58" t="s">
         <v>105</v>
       </c>
-      <c r="E3" s="101"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
       <c r="K3" s="57"/>
       <c r="L3" s="66"/>
     </row>
     <row r="4" spans="1:12" ht="28">
-      <c r="A4" s="99"/>
+      <c r="A4" s="87"/>
       <c r="B4" s="57" t="s">
         <v>110</v>
       </c>
@@ -4111,7 +4360,7 @@
       <c r="L4" s="66"/>
     </row>
     <row r="5" spans="1:12" ht="20" customHeight="1">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="90" t="s">
         <v>115</v>
       </c>
       <c r="B5" s="57" t="s">
@@ -4123,29 +4372,29 @@
       <c r="D5" s="58" t="s">
         <v>120</v>
       </c>
-      <c r="E5" s="82" t="s">
+      <c r="E5" s="88" t="s">
         <v>123</v>
       </c>
-      <c r="F5" s="82">
+      <c r="F5" s="88">
         <v>2</v>
       </c>
       <c r="G5" s="58" t="s">
         <v>124</v>
       </c>
-      <c r="H5" s="79" t="s">
+      <c r="H5" s="93" t="s">
         <v>108</v>
       </c>
       <c r="I5" s="57" t="s">
         <v>127</v>
       </c>
-      <c r="J5" s="79">
+      <c r="J5" s="93">
         <v>8</v>
       </c>
       <c r="K5" s="57"/>
       <c r="L5" s="66"/>
     </row>
     <row r="6" spans="1:12" ht="28">
-      <c r="A6" s="95"/>
+      <c r="A6" s="91"/>
       <c r="B6" s="57" t="s">
         <v>117</v>
       </c>
@@ -4155,21 +4404,21 @@
       <c r="D6" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
       <c r="G6" s="57" t="s">
         <v>125</v>
       </c>
-      <c r="H6" s="92"/>
+      <c r="H6" s="94"/>
       <c r="I6" s="58" t="s">
         <v>128</v>
       </c>
-      <c r="J6" s="92"/>
+      <c r="J6" s="94"/>
       <c r="K6" s="57"/>
       <c r="L6" s="66"/>
     </row>
     <row r="7" spans="1:12" ht="20" customHeight="1">
-      <c r="A7" s="96"/>
+      <c r="A7" s="92"/>
       <c r="B7" s="57" t="s">
         <v>118</v>
       </c>
@@ -4184,11 +4433,11 @@
       </c>
       <c r="F7" s="59"/>
       <c r="G7" s="57"/>
-      <c r="H7" s="93"/>
+      <c r="H7" s="95"/>
       <c r="I7" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="J7" s="93"/>
+      <c r="J7" s="95"/>
       <c r="K7" s="57"/>
       <c r="L7" s="66"/>
     </row>
@@ -4249,7 +4498,7 @@
       <c r="L9" s="66"/>
     </row>
     <row r="10" spans="1:12" ht="20" customHeight="1">
-      <c r="A10" s="85" t="s">
+      <c r="A10" s="90" t="s">
         <v>138</v>
       </c>
       <c r="B10" s="57" t="s">
@@ -4270,20 +4519,20 @@
       <c r="G10" s="57" t="s">
         <v>145</v>
       </c>
-      <c r="H10" s="79" t="s">
+      <c r="H10" s="93" t="s">
         <v>108</v>
       </c>
       <c r="I10" s="57" t="s">
         <v>146</v>
       </c>
-      <c r="J10" s="79">
+      <c r="J10" s="93">
         <v>5</v>
       </c>
       <c r="K10" s="57"/>
       <c r="L10" s="66"/>
     </row>
     <row r="11" spans="1:12" ht="28">
-      <c r="A11" s="96"/>
+      <c r="A11" s="92"/>
       <c r="B11" s="57" t="s">
         <v>140</v>
       </c>
@@ -4302,16 +4551,16 @@
       <c r="G11" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="H11" s="93"/>
+      <c r="H11" s="95"/>
       <c r="I11" s="58" t="s">
         <v>147</v>
       </c>
-      <c r="J11" s="93"/>
+      <c r="J11" s="95"/>
       <c r="K11" s="57"/>
       <c r="L11" s="66"/>
     </row>
     <row r="12" spans="1:12" ht="20" customHeight="1">
-      <c r="A12" s="85" t="s">
+      <c r="A12" s="90" t="s">
         <v>148</v>
       </c>
       <c r="B12" s="57" t="s">
@@ -4323,7 +4572,7 @@
       <c r="D12" s="58" t="s">
         <v>150</v>
       </c>
-      <c r="E12" s="79" t="s">
+      <c r="E12" s="93" t="s">
         <v>144</v>
       </c>
       <c r="F12" s="59">
@@ -4332,20 +4581,20 @@
       <c r="G12" s="57" t="s">
         <v>153</v>
       </c>
-      <c r="H12" s="79" t="s">
+      <c r="H12" s="93" t="s">
         <v>108</v>
       </c>
       <c r="I12" s="57" t="s">
         <v>155</v>
       </c>
-      <c r="J12" s="79">
+      <c r="J12" s="93">
         <v>5</v>
       </c>
       <c r="K12" s="57"/>
       <c r="L12" s="66"/>
     </row>
     <row r="13" spans="1:12" ht="20" customHeight="1">
-      <c r="A13" s="95"/>
+      <c r="A13" s="91"/>
       <c r="B13" s="57" t="s">
         <v>132</v>
       </c>
@@ -4355,23 +4604,23 @@
       <c r="D13" s="58" t="s">
         <v>151</v>
       </c>
-      <c r="E13" s="92"/>
+      <c r="E13" s="94"/>
       <c r="F13" s="59">
         <v>1</v>
       </c>
       <c r="G13" s="57" t="s">
         <v>154</v>
       </c>
-      <c r="H13" s="92"/>
-      <c r="I13" s="94" t="s">
+      <c r="H13" s="94"/>
+      <c r="I13" s="96" t="s">
         <v>156</v>
       </c>
-      <c r="J13" s="92"/>
+      <c r="J13" s="94"/>
       <c r="K13" s="57"/>
       <c r="L13" s="66"/>
     </row>
     <row r="14" spans="1:12" ht="20" customHeight="1">
-      <c r="A14" s="96"/>
+      <c r="A14" s="92"/>
       <c r="B14" s="57" t="s">
         <v>149</v>
       </c>
@@ -4386,14 +4635,14 @@
       </c>
       <c r="F14" s="59"/>
       <c r="G14" s="57"/>
-      <c r="H14" s="93"/>
-      <c r="I14" s="91"/>
-      <c r="J14" s="93"/>
+      <c r="H14" s="95"/>
+      <c r="I14" s="97"/>
+      <c r="J14" s="95"/>
       <c r="K14" s="57"/>
       <c r="L14" s="66"/>
     </row>
     <row r="15" spans="1:12" ht="20" customHeight="1">
-      <c r="A15" s="85" t="s">
+      <c r="A15" s="90" t="s">
         <v>157</v>
       </c>
       <c r="B15" s="57" t="s">
@@ -4405,29 +4654,29 @@
       <c r="D15" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="E15" s="90" t="s">
+      <c r="E15" s="106" t="s">
         <v>164</v>
       </c>
-      <c r="F15" s="79">
+      <c r="F15" s="93">
         <v>1</v>
       </c>
-      <c r="G15" s="79" t="s">
+      <c r="G15" s="93" t="s">
         <v>153</v>
       </c>
-      <c r="H15" s="79" t="s">
+      <c r="H15" s="93" t="s">
         <v>108</v>
       </c>
-      <c r="I15" s="82" t="s">
+      <c r="I15" s="88" t="s">
         <v>167</v>
       </c>
-      <c r="J15" s="79">
+      <c r="J15" s="93">
         <v>8</v>
       </c>
       <c r="K15" s="57"/>
       <c r="L15" s="66"/>
     </row>
     <row r="16" spans="1:12" ht="20" customHeight="1">
-      <c r="A16" s="86"/>
+      <c r="A16" s="102"/>
       <c r="B16" s="57" t="s">
         <v>159</v>
       </c>
@@ -4437,17 +4686,17 @@
       <c r="D16" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="E16" s="91"/>
-      <c r="F16" s="80"/>
-      <c r="G16" s="88"/>
-      <c r="H16" s="80"/>
-      <c r="I16" s="83"/>
-      <c r="J16" s="80"/>
+      <c r="E16" s="97"/>
+      <c r="F16" s="98"/>
+      <c r="G16" s="104"/>
+      <c r="H16" s="98"/>
+      <c r="I16" s="100"/>
+      <c r="J16" s="98"/>
       <c r="K16" s="57"/>
       <c r="L16" s="66"/>
     </row>
     <row r="17" spans="1:12" ht="20" customHeight="1">
-      <c r="A17" s="86"/>
+      <c r="A17" s="102"/>
       <c r="B17" s="57" t="s">
         <v>160</v>
       </c>
@@ -4460,18 +4709,18 @@
       <c r="E17" s="57" t="s">
         <v>165</v>
       </c>
-      <c r="F17" s="88"/>
+      <c r="F17" s="104"/>
       <c r="G17" s="57" t="s">
         <v>166</v>
       </c>
-      <c r="H17" s="88"/>
-      <c r="I17" s="89"/>
-      <c r="J17" s="88"/>
+      <c r="H17" s="104"/>
+      <c r="I17" s="105"/>
+      <c r="J17" s="104"/>
       <c r="K17" s="57"/>
       <c r="L17" s="66"/>
     </row>
     <row r="18" spans="1:12" ht="20" customHeight="1">
-      <c r="A18" s="85" t="s">
+      <c r="A18" s="90" t="s">
         <v>168</v>
       </c>
       <c r="B18" s="62" t="s">
@@ -4480,68 +4729,68 @@
       <c r="C18" s="57">
         <v>1</v>
       </c>
-      <c r="D18" s="82" t="s">
+      <c r="D18" s="88" t="s">
         <v>172</v>
       </c>
-      <c r="E18" s="79" t="s">
+      <c r="E18" s="93" t="s">
         <v>174</v>
       </c>
-      <c r="F18" s="79">
+      <c r="F18" s="93">
         <v>1</v>
       </c>
-      <c r="G18" s="79" t="s">
+      <c r="G18" s="93" t="s">
         <v>153</v>
       </c>
-      <c r="H18" s="79" t="s">
+      <c r="H18" s="93" t="s">
         <v>108</v>
       </c>
-      <c r="I18" s="82" t="s">
+      <c r="I18" s="88" t="s">
         <v>176</v>
       </c>
-      <c r="J18" s="79">
+      <c r="J18" s="93">
         <v>3</v>
       </c>
       <c r="K18" s="57"/>
       <c r="L18" s="66"/>
     </row>
     <row r="19" spans="1:12" ht="20" customHeight="1">
-      <c r="A19" s="86"/>
+      <c r="A19" s="102"/>
       <c r="B19" s="62" t="s">
         <v>169</v>
       </c>
       <c r="C19" s="57">
         <v>2</v>
       </c>
-      <c r="D19" s="83"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="80"/>
-      <c r="G19" s="80"/>
-      <c r="H19" s="80"/>
-      <c r="I19" s="83"/>
-      <c r="J19" s="80"/>
+      <c r="D19" s="100"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="98"/>
+      <c r="G19" s="98"/>
+      <c r="H19" s="98"/>
+      <c r="I19" s="100"/>
+      <c r="J19" s="98"/>
       <c r="K19" s="57"/>
       <c r="L19" s="66"/>
     </row>
     <row r="20" spans="1:12" ht="20" customHeight="1">
-      <c r="A20" s="86"/>
+      <c r="A20" s="102"/>
       <c r="B20" s="62" t="s">
         <v>170</v>
       </c>
       <c r="C20" s="57">
         <v>1</v>
       </c>
-      <c r="D20" s="89"/>
-      <c r="E20" s="88"/>
-      <c r="F20" s="88"/>
-      <c r="G20" s="88"/>
-      <c r="H20" s="80"/>
-      <c r="I20" s="83"/>
-      <c r="J20" s="80"/>
+      <c r="D20" s="105"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="104"/>
+      <c r="H20" s="98"/>
+      <c r="I20" s="100"/>
+      <c r="J20" s="98"/>
       <c r="K20" s="57"/>
       <c r="L20" s="66"/>
     </row>
     <row r="21" spans="1:12" ht="20" customHeight="1" thickBot="1">
-      <c r="A21" s="87"/>
+      <c r="A21" s="103"/>
       <c r="B21" s="68" t="s">
         <v>171</v>
       </c>
@@ -4560,9 +4809,9 @@
       <c r="G21" s="69" t="s">
         <v>175</v>
       </c>
-      <c r="H21" s="81"/>
-      <c r="I21" s="84"/>
-      <c r="J21" s="81"/>
+      <c r="H21" s="99"/>
+      <c r="I21" s="101"/>
+      <c r="J21" s="99"/>
       <c r="K21" s="69"/>
       <c r="L21" s="71"/>
     </row>
@@ -4571,26 +4820,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="J5:J7"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="A12:A14"/>
     <mergeCell ref="H18:H21"/>
     <mergeCell ref="I18:I21"/>
     <mergeCell ref="J18:J21"/>
@@ -4606,6 +4835,26 @@
     <mergeCell ref="H15:H17"/>
     <mergeCell ref="I15:I17"/>
     <mergeCell ref="J15:J17"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4620,144 +4869,345 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="28" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="38.1640625" style="103" customWidth="1"/>
-    <col min="2" max="2" width="35" style="106" customWidth="1"/>
-    <col min="3" max="3" width="25.83203125" style="103" customWidth="1"/>
-    <col min="4" max="16384" width="8.83203125" style="103"/>
+    <col min="1" max="1" width="21.33203125" style="72" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" style="74" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="74" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="72" customWidth="1"/>
+    <col min="5" max="5" width="31.1640625" style="72" customWidth="1"/>
+    <col min="6" max="6" width="25.1640625" style="72" customWidth="1"/>
+    <col min="7" max="7" width="16.1640625" style="72" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="72"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="104" customFormat="1" ht="28" customHeight="1">
-      <c r="A1" s="104" t="s">
+    <row r="1" spans="1:7" s="73" customFormat="1" ht="28" customHeight="1">
+      <c r="A1" s="107" t="s">
         <v>177</v>
       </c>
-      <c r="B1" s="105" t="s">
+      <c r="B1" s="108" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="28" customHeight="1">
-      <c r="A2" s="103" t="s">
+      <c r="C1" s="108"/>
+      <c r="D1" s="109" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="108" t="s">
+        <v>193</v>
+      </c>
+      <c r="F1" s="108" t="s">
+        <v>194</v>
+      </c>
+      <c r="G1" s="73" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="28" customHeight="1">
+      <c r="A2" s="110" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2" s="111">
+        <v>8600</v>
+      </c>
+      <c r="C2" s="111" t="s">
+        <v>201</v>
+      </c>
+      <c r="D2" s="112">
+        <v>8600</v>
+      </c>
+      <c r="E2" s="110" t="s">
+        <v>195</v>
+      </c>
+      <c r="F2" s="110">
+        <v>16223</v>
+      </c>
+      <c r="G2" s="110">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="28" customHeight="1">
+      <c r="A3" s="110" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3" s="111">
+        <v>38000</v>
+      </c>
+      <c r="C3" s="111"/>
+      <c r="D3" s="112">
+        <v>20000</v>
+      </c>
+      <c r="E3" s="110" t="s">
+        <v>196</v>
+      </c>
+      <c r="F3" s="110">
+        <v>4160</v>
+      </c>
+      <c r="G3" s="110"/>
+    </row>
+    <row r="4" spans="1:7" ht="28" customHeight="1">
+      <c r="A4" s="110" t="s">
+        <v>191</v>
+      </c>
+      <c r="B4" s="111">
+        <v>400</v>
+      </c>
+      <c r="C4" s="111"/>
+      <c r="D4" s="112">
+        <v>400</v>
+      </c>
+      <c r="E4" s="110" t="s">
+        <v>197</v>
+      </c>
+      <c r="F4" s="110">
+        <v>673</v>
+      </c>
+      <c r="G4" s="110">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="28" customHeight="1">
+      <c r="A5" s="110" t="s">
+        <v>184</v>
+      </c>
+      <c r="B5" s="111">
+        <v>3310</v>
+      </c>
+      <c r="C5" s="111"/>
+      <c r="D5" s="112">
+        <v>500</v>
+      </c>
+      <c r="E5" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="F5" s="110">
+        <v>585</v>
+      </c>
+      <c r="G5" s="110">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="28" customHeight="1">
+      <c r="A6" s="110" t="s">
+        <v>186</v>
+      </c>
+      <c r="B6" s="111">
+        <v>2350</v>
+      </c>
+      <c r="C6" s="111"/>
+      <c r="D6" s="112">
+        <v>2350</v>
+      </c>
+      <c r="E6" s="110" t="s">
+        <v>199</v>
+      </c>
+      <c r="F6" s="110">
+        <v>500</v>
+      </c>
+      <c r="G6" s="110"/>
+    </row>
+    <row r="7" spans="1:7" ht="28" customHeight="1">
+      <c r="A7" s="110" t="s">
+        <v>185</v>
+      </c>
+      <c r="B7" s="111">
+        <v>2922</v>
+      </c>
+      <c r="C7" s="111"/>
+      <c r="D7" s="112">
+        <v>3000</v>
+      </c>
+      <c r="E7" s="110" t="s">
+        <v>200</v>
+      </c>
+      <c r="F7" s="110">
+        <v>479</v>
+      </c>
+      <c r="G7" s="110">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="28" customHeight="1">
+      <c r="A8" s="110" t="s">
+        <v>182</v>
+      </c>
+      <c r="B8" s="111">
+        <v>5820</v>
+      </c>
+      <c r="C8" s="111"/>
+      <c r="D8" s="112">
+        <v>5000</v>
+      </c>
+      <c r="E8" s="110" t="s">
+        <v>202</v>
+      </c>
+      <c r="F8" s="110">
+        <v>391</v>
+      </c>
+      <c r="G8" s="110">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="28" customHeight="1">
+      <c r="A9" s="110" t="s">
+        <v>183</v>
+      </c>
+      <c r="B9" s="111">
+        <v>4323</v>
+      </c>
+      <c r="C9" s="111"/>
+      <c r="D9" s="112">
+        <v>3000</v>
+      </c>
+      <c r="E9" s="110" t="s">
+        <v>203</v>
+      </c>
+      <c r="F9" s="110">
+        <v>33000</v>
+      </c>
+      <c r="G9" s="110">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="28" customHeight="1">
+      <c r="A10" s="110" t="s">
+        <v>187</v>
+      </c>
+      <c r="B10" s="111">
+        <v>2160</v>
+      </c>
+      <c r="C10" s="111"/>
+      <c r="D10" s="112">
+        <v>2000</v>
+      </c>
+      <c r="E10" s="110" t="s">
+        <v>204</v>
+      </c>
+      <c r="F10" s="110">
+        <v>12540</v>
+      </c>
+      <c r="G10" s="110">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="28" customHeight="1">
+      <c r="A11" s="110" t="s">
+        <v>188</v>
+      </c>
+      <c r="B11" s="111">
+        <v>850</v>
+      </c>
+      <c r="C11" s="111"/>
+      <c r="D11" s="112">
+        <v>850</v>
+      </c>
+      <c r="E11" s="110" t="s">
+        <v>205</v>
+      </c>
+      <c r="F11" s="110">
+        <v>9650</v>
+      </c>
+      <c r="G11" s="110">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="28" customHeight="1">
+      <c r="A12" s="110" t="s">
+        <v>181</v>
+      </c>
+      <c r="B12" s="111">
+        <v>5893</v>
+      </c>
+      <c r="C12" s="111"/>
+      <c r="D12" s="112">
+        <v>3000</v>
+      </c>
+      <c r="E12" s="110" t="s">
+        <v>206</v>
+      </c>
+      <c r="F12" s="110">
+        <v>12197</v>
+      </c>
+      <c r="G12" s="110">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="28" customHeight="1">
+      <c r="A13" s="110" t="s">
         <v>179</v>
       </c>
-      <c r="B2" s="106">
+      <c r="B13" s="111">
         <v>16520</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="28" customHeight="1">
-      <c r="A3" s="103" t="s">
+      <c r="C13" s="111"/>
+      <c r="D13" s="112">
+        <v>8000</v>
+      </c>
+      <c r="E13" s="110" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="110">
+        <v>5149</v>
+      </c>
+      <c r="G13" s="110">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="28" customHeight="1">
+      <c r="A14" s="110" t="s">
         <v>180</v>
       </c>
-      <c r="B3" s="106">
+      <c r="B14" s="111">
         <v>10600</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="28" customHeight="1">
-      <c r="A4" s="103" t="s">
-        <v>181</v>
-      </c>
-      <c r="B4" s="106">
-        <v>5893</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="28" customHeight="1">
-      <c r="A5" s="103" t="s">
-        <v>182</v>
-      </c>
-      <c r="B5" s="106">
-        <v>5820</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="28" customHeight="1">
-      <c r="A6" s="103" t="s">
-        <v>183</v>
-      </c>
-      <c r="B6" s="106">
-        <v>4323</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="28" customHeight="1">
-      <c r="A7" s="103" t="s">
-        <v>184</v>
-      </c>
-      <c r="B7" s="106">
-        <v>3310</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="28" customHeight="1">
-      <c r="A8" s="103" t="s">
-        <v>185</v>
-      </c>
-      <c r="B8" s="106">
-        <v>2922</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="28" customHeight="1">
-      <c r="A9" s="103" t="s">
-        <v>186</v>
-      </c>
-      <c r="B9" s="106">
-        <v>2350</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="28" customHeight="1">
-      <c r="A10" s="103" t="s">
-        <v>187</v>
-      </c>
-      <c r="B10" s="106">
-        <v>2160</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="28" customHeight="1">
-      <c r="A11" s="103" t="s">
-        <v>188</v>
-      </c>
-      <c r="B11" s="106">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="28" customHeight="1">
-      <c r="A12" s="103" t="s">
-        <v>190</v>
-      </c>
-      <c r="B12" s="106">
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="28" customHeight="1">
-      <c r="A13" s="103" t="s">
-        <v>189</v>
-      </c>
-      <c r="B13" s="106">
-        <v>38000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="28" customHeight="1">
-      <c r="A14" s="103" t="s">
-        <v>191</v>
-      </c>
-      <c r="B14" s="106">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" s="107" customFormat="1" ht="28" customHeight="1">
-      <c r="A16" s="107" t="s">
+      <c r="C14" s="111"/>
+      <c r="D14" s="112">
+        <v>6000</v>
+      </c>
+      <c r="E14" s="110" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="110">
+        <v>4498</v>
+      </c>
+      <c r="G14" s="110">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="75" customFormat="1" ht="28" customHeight="1">
+      <c r="A15" s="113" t="s">
         <v>192</v>
       </c>
-      <c r="B16" s="108">
+      <c r="B15" s="114">
         <f>SUM(B2:B14)</f>
-        <v>96348</v>
+        <v>101748</v>
+      </c>
+      <c r="C15" s="114"/>
+      <c r="D15" s="114">
+        <f>SUM(D2:D14)</f>
+        <v>62700</v>
+      </c>
+      <c r="E15" s="113" t="s">
+        <v>192</v>
+      </c>
+      <c r="F15" s="114">
+        <f>SUM(F2:F14)</f>
+        <v>100045</v>
+      </c>
+      <c r="G15" s="114">
+        <f>SUM(G2:G14)</f>
+        <v>67900</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/小胡子装修清单.xlsx
+++ b/小胡子装修清单.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26101"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wx/WorkSpace/askday/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5980" yWindow="4220" windowWidth="20140" windowHeight="13400" activeTab="3"/>
+    <workbookView xWindow="9480" yWindow="5980" windowWidth="20520" windowHeight="15340" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="装修清单" sheetId="1" r:id="rId1"/>
     <sheet name="建筑面积" sheetId="2" r:id="rId2"/>
     <sheet name="水电需求" sheetId="3" r:id="rId3"/>
     <sheet name="小灰灰" sheetId="4" r:id="rId4"/>
+    <sheet name="其他费用" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="220">
   <si>
     <t>项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -851,6 +857,91 @@
   </si>
   <si>
     <t>空调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日收益</t>
+    <rPh sb="0" eb="1">
+      <t>ri'shou'yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>契税</t>
+    <rPh sb="0" eb="1">
+      <t>qi'shui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公维</t>
+    <rPh sb="0" eb="1">
+      <t>gong'wei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产权</t>
+    <rPh sb="0" eb="1">
+      <t>chan'quan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物业</t>
+    <rPh sb="0" eb="1">
+      <t>wu'ye</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有线</t>
+    <rPh sb="0" eb="1">
+      <t>you'xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新风</t>
+    <rPh sb="0" eb="1">
+      <t>xin'feng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装修押金</t>
+    <rPh sb="0" eb="1">
+      <t>zhuang'xiu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ya'jin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还贷</t>
+    <rPh sb="0" eb="1">
+      <t>huan'dai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还信用卡</t>
+    <rPh sb="0" eb="1">
+      <t>huan'xin'yong'ka</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -861,7 +952,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -916,6 +1007,7 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -931,6 +1023,7 @@
       <sz val="18"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -939,6 +1032,7 @@
       <sz val="18"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -946,6 +1040,7 @@
       <sz val="18"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -967,8 +1062,17 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1028,6 +1132,12 @@
         <fgColor theme="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="63">
     <border>
@@ -1940,7 +2050,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2169,6 +2279,39 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2190,104 +2333,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="32">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="6" builtinId="8" hidden="1"/>
@@ -2303,23 +2423,22 @@
     <cellStyle name="超链接" xfId="26" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="28" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="30" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
-    <cellStyle name="强调文字颜色 6" xfId="1" builtinId="49"/>
+    <cellStyle name="个性色6" xfId="1" builtinId="49"/>
+    <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="31" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2789,7 +2908,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2804,7 +2923,7 @@
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="32.5" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
@@ -2814,7 +2933,7 @@
     <col min="9" max="9" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2843,7 +2962,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="47" t="s">
         <v>34</v>
       </c>
@@ -2856,7 +2975,7 @@
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
     </row>
-    <row r="3" spans="1:9" ht="12.75" customHeight="1">
+    <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>16</v>
       </c>
@@ -2871,7 +2990,7 @@
       <c r="H3" s="9"/>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="11" t="s">
         <v>17</v>
       </c>
@@ -2884,7 +3003,7 @@
       <c r="H4" s="12"/>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="11" t="s">
         <v>20</v>
       </c>
@@ -2897,7 +3016,7 @@
       <c r="H5" s="12"/>
       <c r="I5" s="13"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="11" t="s">
         <v>18</v>
       </c>
@@ -2910,7 +3029,7 @@
       <c r="H6" s="12"/>
       <c r="I6" s="13"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="11" t="s">
         <v>19</v>
       </c>
@@ -2923,7 +3042,7 @@
       <c r="H7" s="12"/>
       <c r="I7" s="13"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="11" t="s">
         <v>21</v>
       </c>
@@ -2936,7 +3055,7 @@
       <c r="H8" s="12"/>
       <c r="I8" s="13"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="11" t="s">
         <v>22</v>
       </c>
@@ -2949,7 +3068,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="13"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="11" t="s">
         <v>23</v>
       </c>
@@ -2962,7 +3081,7 @@
       <c r="H10" s="12"/>
       <c r="I10" s="13"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="11" t="s">
         <v>24</v>
       </c>
@@ -2975,7 +3094,7 @@
       <c r="H11" s="12"/>
       <c r="I11" s="13"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="11" t="s">
         <v>25</v>
       </c>
@@ -2988,7 +3107,7 @@
       <c r="H12" s="12"/>
       <c r="I12" s="13"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="11" t="s">
         <v>26</v>
       </c>
@@ -3001,7 +3120,7 @@
       <c r="H13" s="12"/>
       <c r="I13" s="13"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="11" t="s">
         <v>27</v>
       </c>
@@ -3014,7 +3133,7 @@
       <c r="H14" s="12"/>
       <c r="I14" s="13"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="11" t="s">
         <v>28</v>
       </c>
@@ -3027,7 +3146,7 @@
       <c r="H15" s="12"/>
       <c r="I15" s="13"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="11" t="s">
         <v>29</v>
       </c>
@@ -3040,7 +3159,7 @@
       <c r="H16" s="12"/>
       <c r="I16" s="13"/>
     </row>
-    <row r="17" spans="1:52">
+    <row r="17" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A17" s="11" t="s">
         <v>30</v>
       </c>
@@ -3053,7 +3172,7 @@
       <c r="H17" s="12"/>
       <c r="I17" s="13"/>
     </row>
-    <row r="18" spans="1:52">
+    <row r="18" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A18" s="11" t="s">
         <v>31</v>
       </c>
@@ -3066,7 +3185,7 @@
       <c r="H18" s="12"/>
       <c r="I18" s="13"/>
     </row>
-    <row r="19" spans="1:52">
+    <row r="19" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A19" s="11" t="s">
         <v>50</v>
       </c>
@@ -3079,7 +3198,7 @@
       <c r="H19" s="12"/>
       <c r="I19" s="13"/>
     </row>
-    <row r="20" spans="1:52">
+    <row r="20" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A20" s="11" t="s">
         <v>32</v>
       </c>
@@ -3092,7 +3211,7 @@
       <c r="H20" s="12"/>
       <c r="I20" s="13"/>
     </row>
-    <row r="21" spans="1:52">
+    <row r="21" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A21" s="18" t="s">
         <v>33</v>
       </c>
@@ -3148,7 +3267,7 @@
       <c r="AY21" s="27"/>
       <c r="AZ21" s="27"/>
     </row>
-    <row r="22" spans="1:52" s="17" customFormat="1">
+    <row r="22" spans="1:52" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="46" t="s">
         <v>35</v>
       </c>
@@ -3204,7 +3323,7 @@
       <c r="AY22" s="27"/>
       <c r="AZ22" s="27"/>
     </row>
-    <row r="23" spans="1:52">
+    <row r="23" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A23" s="21" t="s">
         <v>36</v>
       </c>
@@ -3217,7 +3336,7 @@
       <c r="H23" s="22"/>
       <c r="I23" s="23"/>
     </row>
-    <row r="24" spans="1:52">
+    <row r="24" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A24" s="11" t="s">
         <v>37</v>
       </c>
@@ -3230,7 +3349,7 @@
       <c r="H24" s="12"/>
       <c r="I24" s="13"/>
     </row>
-    <row r="25" spans="1:52">
+    <row r="25" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A25" s="11" t="s">
         <v>38</v>
       </c>
@@ -3243,7 +3362,7 @@
       <c r="H25" s="12"/>
       <c r="I25" s="13"/>
     </row>
-    <row r="26" spans="1:52">
+    <row r="26" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A26" s="11" t="s">
         <v>39</v>
       </c>
@@ -3256,7 +3375,7 @@
       <c r="H26" s="12"/>
       <c r="I26" s="13"/>
     </row>
-    <row r="27" spans="1:52">
+    <row r="27" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A27" s="18" t="s">
         <v>40</v>
       </c>
@@ -3269,7 +3388,7 @@
       <c r="H27" s="19"/>
       <c r="I27" s="20"/>
     </row>
-    <row r="28" spans="1:52">
+    <row r="28" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A28" s="18" t="s">
         <v>41</v>
       </c>
@@ -3282,7 +3401,7 @@
       <c r="H28" s="19"/>
       <c r="I28" s="20"/>
     </row>
-    <row r="29" spans="1:52">
+    <row r="29" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A29" s="18" t="s">
         <v>42</v>
       </c>
@@ -3295,7 +3414,7 @@
       <c r="H29" s="19"/>
       <c r="I29" s="20"/>
     </row>
-    <row r="30" spans="1:52">
+    <row r="30" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A30" s="18" t="s">
         <v>43</v>
       </c>
@@ -3308,7 +3427,7 @@
       <c r="H30" s="19"/>
       <c r="I30" s="20"/>
     </row>
-    <row r="31" spans="1:52">
+    <row r="31" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A31" s="18" t="s">
         <v>44</v>
       </c>
@@ -3321,7 +3440,7 @@
       <c r="H31" s="19"/>
       <c r="I31" s="20"/>
     </row>
-    <row r="32" spans="1:52">
+    <row r="32" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A32" s="45" t="s">
         <v>44</v>
       </c>
@@ -3334,7 +3453,7 @@
       <c r="H32" s="31"/>
       <c r="I32" s="32"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" s="28" t="s">
         <v>45</v>
       </c>
@@ -3347,7 +3466,7 @@
       <c r="H33" s="29"/>
       <c r="I33" s="30"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" s="18" t="s">
         <v>19</v>
       </c>
@@ -3360,7 +3479,7 @@
       <c r="H34" s="19"/>
       <c r="I34" s="20"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" s="18" t="s">
         <v>46</v>
       </c>
@@ -3373,7 +3492,7 @@
       <c r="H35" s="19"/>
       <c r="I35" s="20"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" s="18" t="s">
         <v>81</v>
       </c>
@@ -3386,7 +3505,7 @@
       <c r="H36" s="19"/>
       <c r="I36" s="20"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" s="18" t="s">
         <v>47</v>
       </c>
@@ -3399,7 +3518,7 @@
       <c r="H37" s="19"/>
       <c r="I37" s="20"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" s="18" t="s">
         <v>48</v>
       </c>
@@ -3412,7 +3531,7 @@
       <c r="H38" s="19"/>
       <c r="I38" s="20"/>
     </row>
-    <row r="39" spans="1:9" s="35" customFormat="1">
+    <row r="39" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A39" s="45" t="s">
         <v>49</v>
       </c>
@@ -3425,7 +3544,7 @@
       <c r="H39" s="33"/>
       <c r="I39" s="34"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A40" s="28" t="s">
         <v>19</v>
       </c>
@@ -3438,7 +3557,7 @@
       <c r="H40" s="12"/>
       <c r="I40" s="12"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A41" s="12" t="s">
         <v>51</v>
       </c>
@@ -3451,7 +3570,7 @@
       <c r="H41" s="12"/>
       <c r="I41" s="12"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A42" s="18" t="s">
         <v>47</v>
       </c>
@@ -3464,7 +3583,7 @@
       <c r="H42" s="12"/>
       <c r="I42" s="12"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A43" s="18" t="s">
         <v>52</v>
       </c>
@@ -3477,7 +3596,7 @@
       <c r="H43" s="12"/>
       <c r="I43" s="12"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A44" s="18" t="s">
         <v>53</v>
       </c>
@@ -3490,7 +3609,7 @@
       <c r="H44" s="12"/>
       <c r="I44" s="12"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A45" s="18" t="s">
         <v>54</v>
       </c>
@@ -3503,7 +3622,7 @@
       <c r="H45" s="12"/>
       <c r="I45" s="12"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A46" s="18" t="s">
         <v>55</v>
       </c>
@@ -3516,7 +3635,7 @@
       <c r="H46" s="12"/>
       <c r="I46" s="12"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A47" s="12" t="s">
         <v>56</v>
       </c>
@@ -3529,7 +3648,7 @@
       <c r="H47" s="12"/>
       <c r="I47" s="12"/>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A48" s="12" t="s">
         <v>57</v>
       </c>
@@ -3542,7 +3661,7 @@
       <c r="H48" s="29"/>
       <c r="I48" s="30"/>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A49" s="12" t="s">
         <v>58</v>
       </c>
@@ -3555,7 +3674,7 @@
       <c r="H49" s="12"/>
       <c r="I49" s="12"/>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A50" s="12" t="s">
         <v>59</v>
       </c>
@@ -3568,7 +3687,7 @@
       <c r="H50" s="19"/>
       <c r="I50" s="20"/>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A51" s="12" t="s">
         <v>60</v>
       </c>
@@ -3581,7 +3700,7 @@
       <c r="H51" s="19"/>
       <c r="I51" s="20"/>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A52" s="12" t="s">
         <v>61</v>
       </c>
@@ -3594,7 +3713,7 @@
       <c r="H52" s="19"/>
       <c r="I52" s="20"/>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A53" s="12" t="s">
         <v>62</v>
       </c>
@@ -3607,7 +3726,7 @@
       <c r="H53" s="19"/>
       <c r="I53" s="20"/>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A54" s="19" t="s">
         <v>63</v>
       </c>
@@ -3620,7 +3739,7 @@
       <c r="H54" s="19"/>
       <c r="I54" s="20"/>
     </row>
-    <row r="55" spans="1:9" s="37" customFormat="1">
+    <row r="55" spans="1:9" s="37" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A55" s="44" t="s">
         <v>64</v>
       </c>
@@ -3633,7 +3752,7 @@
       <c r="H55" s="39"/>
       <c r="I55" s="40"/>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A56" s="44" t="s">
         <v>65</v>
       </c>
@@ -3646,7 +3765,7 @@
       <c r="H56" s="41"/>
       <c r="I56" s="42"/>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A57" s="19" t="s">
         <v>69</v>
       </c>
@@ -3659,7 +3778,7 @@
       <c r="H57" s="29"/>
       <c r="I57" s="30"/>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A58" s="19" t="s">
         <v>70</v>
       </c>
@@ -3672,7 +3791,7 @@
       <c r="H58" s="19"/>
       <c r="I58" s="20"/>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A59" s="19" t="s">
         <v>71</v>
       </c>
@@ -3685,7 +3804,7 @@
       <c r="H59" s="19"/>
       <c r="I59" s="20"/>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A60" s="19" t="s">
         <v>66</v>
       </c>
@@ -3698,7 +3817,7 @@
       <c r="H60" s="19"/>
       <c r="I60" s="20"/>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A61" s="19" t="s">
         <v>67</v>
       </c>
@@ -3711,7 +3830,7 @@
       <c r="H61" s="19"/>
       <c r="I61" s="20"/>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A62" s="19" t="s">
         <v>72</v>
       </c>
@@ -3724,7 +3843,7 @@
       <c r="H62" s="19"/>
       <c r="I62" s="20"/>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A63" s="19" t="s">
         <v>73</v>
       </c>
@@ -3737,7 +3856,7 @@
       <c r="H63" s="19"/>
       <c r="I63" s="20"/>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A64" s="19" t="s">
         <v>74</v>
       </c>
@@ -3750,7 +3869,7 @@
       <c r="H64" s="19"/>
       <c r="I64" s="20"/>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A65" s="19" t="s">
         <v>75</v>
       </c>
@@ -3763,7 +3882,7 @@
       <c r="H65" s="19"/>
       <c r="I65" s="20"/>
     </row>
-    <row r="66" spans="1:9" ht="26">
+    <row r="66" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A66" s="43" t="s">
         <v>68</v>
       </c>
@@ -3776,7 +3895,7 @@
       <c r="H66" s="19"/>
       <c r="I66" s="20"/>
     </row>
-    <row r="67" spans="1:9" ht="26">
+    <row r="67" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A67" s="43" t="s">
         <v>76</v>
       </c>
@@ -3789,7 +3908,7 @@
       <c r="H67" s="19"/>
       <c r="I67" s="20"/>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A68" s="44" t="s">
         <v>77</v>
       </c>
@@ -3802,7 +3921,7 @@
       <c r="H68" s="41"/>
       <c r="I68" s="42"/>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A69" s="38" t="s">
         <v>78</v>
       </c>
@@ -3815,7 +3934,7 @@
       <c r="H69" s="29"/>
       <c r="I69" s="30"/>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A70" s="36" t="s">
         <v>79</v>
       </c>
@@ -3828,7 +3947,7 @@
       <c r="H70" s="19"/>
       <c r="I70" s="20"/>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A71" s="36" t="s">
         <v>80</v>
       </c>
@@ -3841,7 +3960,7 @@
       <c r="H71" s="19"/>
       <c r="I71" s="20"/>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A72" s="36" t="s">
         <v>82</v>
       </c>
@@ -3854,7 +3973,7 @@
       <c r="H72" s="19"/>
       <c r="I72" s="20"/>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A73" s="36" t="s">
         <v>83</v>
       </c>
@@ -3867,7 +3986,7 @@
       <c r="H73" s="19"/>
       <c r="I73" s="20"/>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A74" s="36"/>
       <c r="B74" s="19"/>
       <c r="C74" s="19"/>
@@ -3878,7 +3997,7 @@
       <c r="H74" s="19"/>
       <c r="I74" s="20"/>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A75" s="36"/>
       <c r="B75" s="19"/>
       <c r="C75" s="19"/>
@@ -3889,7 +4008,7 @@
       <c r="H75" s="19"/>
       <c r="I75" s="20"/>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A76" s="36"/>
       <c r="B76" s="19"/>
       <c r="C76" s="19"/>
@@ -3900,7 +4019,7 @@
       <c r="H76" s="19"/>
       <c r="I76" s="20"/>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A77" s="36"/>
       <c r="B77" s="19"/>
       <c r="C77" s="19"/>
@@ -3911,7 +4030,7 @@
       <c r="H77" s="19"/>
       <c r="I77" s="20"/>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A78" s="36"/>
       <c r="B78" s="19"/>
       <c r="C78" s="19"/>
@@ -3922,7 +4041,7 @@
       <c r="H78" s="19"/>
       <c r="I78" s="20"/>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A79" s="36"/>
       <c r="B79" s="19"/>
       <c r="C79" s="19"/>
@@ -3933,7 +4052,7 @@
       <c r="H79" s="19"/>
       <c r="I79" s="20"/>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A80" s="36"/>
       <c r="B80" s="19"/>
       <c r="C80" s="19"/>
@@ -3944,7 +4063,7 @@
       <c r="H80" s="19"/>
       <c r="I80" s="20"/>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A81" s="36"/>
       <c r="B81" s="19"/>
       <c r="C81" s="19"/>
@@ -3955,7 +4074,7 @@
       <c r="H81" s="19"/>
       <c r="I81" s="20"/>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A82" s="36"/>
       <c r="B82" s="19"/>
       <c r="C82" s="19"/>
@@ -3966,7 +4085,7 @@
       <c r="H82" s="19"/>
       <c r="I82" s="20"/>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A83" s="36"/>
       <c r="B83" s="19"/>
       <c r="C83" s="19"/>
@@ -3977,7 +4096,7 @@
       <c r="H83" s="19"/>
       <c r="I83" s="20"/>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A84" s="36"/>
       <c r="B84" s="19"/>
       <c r="C84" s="19"/>
@@ -3988,7 +4107,7 @@
       <c r="H84" s="19"/>
       <c r="I84" s="20"/>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A85" s="14"/>
       <c r="B85" s="15"/>
       <c r="C85" s="15"/>
@@ -3999,7 +4118,7 @@
       <c r="H85" s="15"/>
       <c r="I85" s="16"/>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
         <v>84</v>
       </c>
@@ -4010,7 +4129,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
         <v>86</v>
       </c>
@@ -4021,7 +4140,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
         <v>90</v>
       </c>
@@ -4032,11 +4151,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4048,10 +4162,10 @@
       <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="4:23" ht="15" thickBot="1"/>
-    <row r="3" spans="4:23" ht="15" thickBot="1">
+    <row r="2" spans="4:23" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="4:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="G3" s="1">
         <v>2.5</v>
       </c>
@@ -4065,14 +4179,14 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="11" spans="4:23">
+    <row r="11" spans="4:23" x14ac:dyDescent="0.15">
       <c r="Q11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="4:23" ht="15" thickBot="1"/>
-    <row r="13" spans="4:23">
-      <c r="N13" s="80">
+    <row r="12" spans="4:23" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="4:23" x14ac:dyDescent="0.15">
+      <c r="N13" s="91">
         <v>3.3</v>
       </c>
       <c r="Q13" s="48" t="s">
@@ -4097,8 +4211,8 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="4:23" ht="15" thickBot="1">
-      <c r="N14" s="81"/>
+    <row r="14" spans="4:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="N14" s="92"/>
       <c r="Q14" s="51"/>
       <c r="R14" s="52"/>
       <c r="S14" s="52"/>
@@ -4107,11 +4221,11 @@
       <c r="V14" s="52"/>
       <c r="W14" s="53"/>
     </row>
-    <row r="15" spans="4:23">
-      <c r="D15" s="80">
+    <row r="15" spans="4:23" x14ac:dyDescent="0.15">
+      <c r="D15" s="91">
         <v>2.75</v>
       </c>
-      <c r="N15" s="81"/>
+      <c r="N15" s="92"/>
       <c r="Q15" s="51"/>
       <c r="R15" s="52"/>
       <c r="S15" s="52"/>
@@ -4120,9 +4234,9 @@
       <c r="V15" s="52"/>
       <c r="W15" s="53"/>
     </row>
-    <row r="16" spans="4:23">
-      <c r="D16" s="81"/>
-      <c r="N16" s="81"/>
+    <row r="16" spans="4:23" x14ac:dyDescent="0.15">
+      <c r="D16" s="92"/>
+      <c r="N16" s="92"/>
       <c r="Q16" s="51"/>
       <c r="R16" s="52"/>
       <c r="S16" s="52"/>
@@ -4131,9 +4245,9 @@
       <c r="V16" s="52"/>
       <c r="W16" s="53"/>
     </row>
-    <row r="17" spans="4:23" ht="15" thickBot="1">
-      <c r="D17" s="81"/>
-      <c r="N17" s="82"/>
+    <row r="17" spans="4:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D17" s="92"/>
+      <c r="N17" s="93"/>
       <c r="Q17" s="54"/>
       <c r="R17" s="55"/>
       <c r="S17" s="55"/>
@@ -4142,58 +4256,58 @@
       <c r="V17" s="55"/>
       <c r="W17" s="56"/>
     </row>
-    <row r="18" spans="4:23">
-      <c r="D18" s="81"/>
-    </row>
-    <row r="19" spans="4:23" ht="15" thickBot="1">
-      <c r="D19" s="82"/>
-    </row>
-    <row r="20" spans="4:23" ht="15" thickBot="1"/>
-    <row r="21" spans="4:23">
-      <c r="N21" s="80">
+    <row r="18" spans="4:23" x14ac:dyDescent="0.15">
+      <c r="D18" s="92"/>
+    </row>
+    <row r="19" spans="4:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D19" s="93"/>
+    </row>
+    <row r="20" spans="4:23" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="4:23" x14ac:dyDescent="0.15">
+      <c r="N21" s="91">
         <v>4.2</v>
       </c>
     </row>
-    <row r="22" spans="4:23" ht="15" thickBot="1">
-      <c r="N22" s="81"/>
-    </row>
-    <row r="23" spans="4:23">
-      <c r="D23" s="80">
+    <row r="22" spans="4:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="N22" s="92"/>
+    </row>
+    <row r="23" spans="4:23" x14ac:dyDescent="0.15">
+      <c r="D23" s="91">
         <v>3.4</v>
       </c>
-      <c r="N23" s="81"/>
-    </row>
-    <row r="24" spans="4:23">
-      <c r="D24" s="81"/>
-      <c r="N24" s="81"/>
-    </row>
-    <row r="25" spans="4:23">
-      <c r="D25" s="81"/>
-      <c r="N25" s="81"/>
-    </row>
-    <row r="26" spans="4:23" ht="15" thickBot="1">
-      <c r="D26" s="81"/>
-      <c r="N26" s="82"/>
-    </row>
-    <row r="27" spans="4:23" ht="15" thickBot="1">
-      <c r="D27" s="82"/>
-    </row>
-    <row r="37" spans="8:11" ht="15" thickBot="1"/>
-    <row r="38" spans="8:11">
-      <c r="H38" s="76">
+      <c r="N23" s="92"/>
+    </row>
+    <row r="24" spans="4:23" x14ac:dyDescent="0.15">
+      <c r="D24" s="92"/>
+      <c r="N24" s="92"/>
+    </row>
+    <row r="25" spans="4:23" x14ac:dyDescent="0.15">
+      <c r="D25" s="92"/>
+      <c r="N25" s="92"/>
+    </row>
+    <row r="26" spans="4:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D26" s="92"/>
+      <c r="N26" s="93"/>
+    </row>
+    <row r="27" spans="4:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D27" s="93"/>
+    </row>
+    <row r="37" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="8:11" x14ac:dyDescent="0.15">
+      <c r="H38" s="87">
         <v>3.6</v>
       </c>
-      <c r="I38" s="77"/>
-      <c r="J38" s="76">
+      <c r="I38" s="88"/>
+      <c r="J38" s="87">
         <v>3.3</v>
       </c>
-      <c r="K38" s="77"/>
-    </row>
-    <row r="39" spans="8:11" ht="15" thickBot="1">
-      <c r="H39" s="78"/>
-      <c r="I39" s="79"/>
-      <c r="J39" s="78"/>
-      <c r="K39" s="79"/>
+      <c r="K38" s="88"/>
+    </row>
+    <row r="39" spans="8:11" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H39" s="89"/>
+      <c r="I39" s="90"/>
+      <c r="J39" s="89"/>
+      <c r="K39" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4208,11 +4322,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4225,7 +4334,7 @@
       <selection pane="bottomLeft" activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19.33203125" customWidth="1"/>
     <col min="2" max="2" width="14.6640625" customWidth="1"/>
@@ -4235,7 +4344,7 @@
     <col min="9" max="9" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="20" customHeight="1">
+    <row r="1" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="63" t="s">
         <v>93</v>
       </c>
@@ -4273,8 +4382,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="20" customHeight="1">
-      <c r="A2" s="85" t="s">
+    <row r="2" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="112" t="s">
         <v>101</v>
       </c>
       <c r="B2" s="57" t="s">
@@ -4286,29 +4395,29 @@
       <c r="D2" s="58" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="83" t="s">
+      <c r="E2" s="116" t="s">
         <v>109</v>
       </c>
-      <c r="F2" s="84">
+      <c r="F2" s="117">
         <v>1</v>
       </c>
-      <c r="G2" s="83" t="s">
+      <c r="G2" s="116" t="s">
         <v>106</v>
       </c>
-      <c r="H2" s="83" t="s">
+      <c r="H2" s="116" t="s">
         <v>108</v>
       </c>
-      <c r="I2" s="83" t="s">
+      <c r="I2" s="116" t="s">
         <v>107</v>
       </c>
-      <c r="J2" s="83">
+      <c r="J2" s="116">
         <v>1</v>
       </c>
       <c r="K2" s="57"/>
       <c r="L2" s="66"/>
     </row>
-    <row r="3" spans="1:12" ht="20" customHeight="1">
-      <c r="A3" s="86"/>
+    <row r="3" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="113"/>
       <c r="B3" s="57" t="s">
         <v>104</v>
       </c>
@@ -4318,17 +4427,17 @@
       <c r="D3" s="58" t="s">
         <v>105</v>
       </c>
-      <c r="E3" s="83"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
       <c r="K3" s="57"/>
       <c r="L3" s="66"/>
     </row>
-    <row r="4" spans="1:12" ht="28">
-      <c r="A4" s="87"/>
+    <row r="4" spans="1:12" ht="28" x14ac:dyDescent="0.15">
+      <c r="A4" s="114"/>
       <c r="B4" s="57" t="s">
         <v>110</v>
       </c>
@@ -4359,8 +4468,8 @@
       <c r="K4" s="57"/>
       <c r="L4" s="66"/>
     </row>
-    <row r="5" spans="1:12" ht="20" customHeight="1">
-      <c r="A5" s="90" t="s">
+    <row r="5" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="100" t="s">
         <v>115</v>
       </c>
       <c r="B5" s="57" t="s">
@@ -4372,29 +4481,29 @@
       <c r="D5" s="58" t="s">
         <v>120</v>
       </c>
-      <c r="E5" s="88" t="s">
+      <c r="E5" s="97" t="s">
         <v>123</v>
       </c>
-      <c r="F5" s="88">
+      <c r="F5" s="97">
         <v>2</v>
       </c>
       <c r="G5" s="58" t="s">
         <v>124</v>
       </c>
-      <c r="H5" s="93" t="s">
+      <c r="H5" s="94" t="s">
         <v>108</v>
       </c>
       <c r="I5" s="57" t="s">
         <v>127</v>
       </c>
-      <c r="J5" s="93">
+      <c r="J5" s="94">
         <v>8</v>
       </c>
       <c r="K5" s="57"/>
       <c r="L5" s="66"/>
     </row>
-    <row r="6" spans="1:12" ht="28">
-      <c r="A6" s="91"/>
+    <row r="6" spans="1:12" ht="28" x14ac:dyDescent="0.15">
+      <c r="A6" s="110"/>
       <c r="B6" s="57" t="s">
         <v>117</v>
       </c>
@@ -4404,21 +4513,21 @@
       <c r="D6" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
       <c r="G6" s="57" t="s">
         <v>125</v>
       </c>
-      <c r="H6" s="94"/>
+      <c r="H6" s="107"/>
       <c r="I6" s="58" t="s">
         <v>128</v>
       </c>
-      <c r="J6" s="94"/>
+      <c r="J6" s="107"/>
       <c r="K6" s="57"/>
       <c r="L6" s="66"/>
     </row>
-    <row r="7" spans="1:12" ht="20" customHeight="1">
-      <c r="A7" s="92"/>
+    <row r="7" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="111"/>
       <c r="B7" s="57" t="s">
         <v>118</v>
       </c>
@@ -4433,15 +4542,15 @@
       </c>
       <c r="F7" s="59"/>
       <c r="G7" s="57"/>
-      <c r="H7" s="95"/>
+      <c r="H7" s="108"/>
       <c r="I7" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="J7" s="95"/>
+      <c r="J7" s="108"/>
       <c r="K7" s="57"/>
       <c r="L7" s="66"/>
     </row>
-    <row r="8" spans="1:12" ht="20" customHeight="1">
+    <row r="8" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="67" t="s">
         <v>130</v>
       </c>
@@ -4469,7 +4578,7 @@
       <c r="K8" s="57"/>
       <c r="L8" s="66"/>
     </row>
-    <row r="9" spans="1:12" ht="20" customHeight="1">
+    <row r="9" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="67" t="s">
         <v>135</v>
       </c>
@@ -4497,8 +4606,8 @@
       <c r="K9" s="57"/>
       <c r="L9" s="66"/>
     </row>
-    <row r="10" spans="1:12" ht="20" customHeight="1">
-      <c r="A10" s="90" t="s">
+    <row r="10" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="100" t="s">
         <v>138</v>
       </c>
       <c r="B10" s="57" t="s">
@@ -4519,20 +4628,20 @@
       <c r="G10" s="57" t="s">
         <v>145</v>
       </c>
-      <c r="H10" s="93" t="s">
+      <c r="H10" s="94" t="s">
         <v>108</v>
       </c>
       <c r="I10" s="57" t="s">
         <v>146</v>
       </c>
-      <c r="J10" s="93">
+      <c r="J10" s="94">
         <v>5</v>
       </c>
       <c r="K10" s="57"/>
       <c r="L10" s="66"/>
     </row>
-    <row r="11" spans="1:12" ht="28">
-      <c r="A11" s="92"/>
+    <row r="11" spans="1:12" ht="28" x14ac:dyDescent="0.15">
+      <c r="A11" s="111"/>
       <c r="B11" s="57" t="s">
         <v>140</v>
       </c>
@@ -4551,16 +4660,16 @@
       <c r="G11" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="H11" s="95"/>
+      <c r="H11" s="108"/>
       <c r="I11" s="58" t="s">
         <v>147</v>
       </c>
-      <c r="J11" s="95"/>
+      <c r="J11" s="108"/>
       <c r="K11" s="57"/>
       <c r="L11" s="66"/>
     </row>
-    <row r="12" spans="1:12" ht="20" customHeight="1">
-      <c r="A12" s="90" t="s">
+    <row r="12" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="100" t="s">
         <v>148</v>
       </c>
       <c r="B12" s="57" t="s">
@@ -4572,7 +4681,7 @@
       <c r="D12" s="58" t="s">
         <v>150</v>
       </c>
-      <c r="E12" s="93" t="s">
+      <c r="E12" s="94" t="s">
         <v>144</v>
       </c>
       <c r="F12" s="59">
@@ -4581,20 +4690,20 @@
       <c r="G12" s="57" t="s">
         <v>153</v>
       </c>
-      <c r="H12" s="93" t="s">
+      <c r="H12" s="94" t="s">
         <v>108</v>
       </c>
       <c r="I12" s="57" t="s">
         <v>155</v>
       </c>
-      <c r="J12" s="93">
+      <c r="J12" s="94">
         <v>5</v>
       </c>
       <c r="K12" s="57"/>
       <c r="L12" s="66"/>
     </row>
-    <row r="13" spans="1:12" ht="20" customHeight="1">
-      <c r="A13" s="91"/>
+    <row r="13" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="110"/>
       <c r="B13" s="57" t="s">
         <v>132</v>
       </c>
@@ -4604,23 +4713,23 @@
       <c r="D13" s="58" t="s">
         <v>151</v>
       </c>
-      <c r="E13" s="94"/>
+      <c r="E13" s="107"/>
       <c r="F13" s="59">
         <v>1</v>
       </c>
       <c r="G13" s="57" t="s">
         <v>154</v>
       </c>
-      <c r="H13" s="94"/>
-      <c r="I13" s="96" t="s">
+      <c r="H13" s="107"/>
+      <c r="I13" s="109" t="s">
         <v>156</v>
       </c>
-      <c r="J13" s="94"/>
+      <c r="J13" s="107"/>
       <c r="K13" s="57"/>
       <c r="L13" s="66"/>
     </row>
-    <row r="14" spans="1:12" ht="20" customHeight="1">
-      <c r="A14" s="92"/>
+    <row r="14" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="111"/>
       <c r="B14" s="57" t="s">
         <v>149</v>
       </c>
@@ -4635,14 +4744,14 @@
       </c>
       <c r="F14" s="59"/>
       <c r="G14" s="57"/>
-      <c r="H14" s="95"/>
-      <c r="I14" s="97"/>
-      <c r="J14" s="95"/>
+      <c r="H14" s="108"/>
+      <c r="I14" s="106"/>
+      <c r="J14" s="108"/>
       <c r="K14" s="57"/>
       <c r="L14" s="66"/>
     </row>
-    <row r="15" spans="1:12" ht="20" customHeight="1">
-      <c r="A15" s="90" t="s">
+    <row r="15" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="100" t="s">
         <v>157</v>
       </c>
       <c r="B15" s="57" t="s">
@@ -4654,29 +4763,29 @@
       <c r="D15" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="E15" s="106" t="s">
+      <c r="E15" s="105" t="s">
         <v>164</v>
       </c>
-      <c r="F15" s="93">
+      <c r="F15" s="94">
         <v>1</v>
       </c>
-      <c r="G15" s="93" t="s">
+      <c r="G15" s="94" t="s">
         <v>153</v>
       </c>
-      <c r="H15" s="93" t="s">
+      <c r="H15" s="94" t="s">
         <v>108</v>
       </c>
-      <c r="I15" s="88" t="s">
+      <c r="I15" s="97" t="s">
         <v>167</v>
       </c>
-      <c r="J15" s="93">
+      <c r="J15" s="94">
         <v>8</v>
       </c>
       <c r="K15" s="57"/>
       <c r="L15" s="66"/>
     </row>
-    <row r="16" spans="1:12" ht="20" customHeight="1">
-      <c r="A16" s="102"/>
+    <row r="16" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="101"/>
       <c r="B16" s="57" t="s">
         <v>159</v>
       </c>
@@ -4686,17 +4795,17 @@
       <c r="D16" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="E16" s="97"/>
-      <c r="F16" s="98"/>
-      <c r="G16" s="104"/>
-      <c r="H16" s="98"/>
-      <c r="I16" s="100"/>
-      <c r="J16" s="98"/>
+      <c r="E16" s="106"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="103"/>
+      <c r="H16" s="95"/>
+      <c r="I16" s="98"/>
+      <c r="J16" s="95"/>
       <c r="K16" s="57"/>
       <c r="L16" s="66"/>
     </row>
-    <row r="17" spans="1:12" ht="20" customHeight="1">
-      <c r="A17" s="102"/>
+    <row r="17" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="101"/>
       <c r="B17" s="57" t="s">
         <v>160</v>
       </c>
@@ -4709,18 +4818,18 @@
       <c r="E17" s="57" t="s">
         <v>165</v>
       </c>
-      <c r="F17" s="104"/>
+      <c r="F17" s="103"/>
       <c r="G17" s="57" t="s">
         <v>166</v>
       </c>
-      <c r="H17" s="104"/>
-      <c r="I17" s="105"/>
-      <c r="J17" s="104"/>
+      <c r="H17" s="103"/>
+      <c r="I17" s="104"/>
+      <c r="J17" s="103"/>
       <c r="K17" s="57"/>
       <c r="L17" s="66"/>
     </row>
-    <row r="18" spans="1:12" ht="20" customHeight="1">
-      <c r="A18" s="90" t="s">
+    <row r="18" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="100" t="s">
         <v>168</v>
       </c>
       <c r="B18" s="62" t="s">
@@ -4729,68 +4838,68 @@
       <c r="C18" s="57">
         <v>1</v>
       </c>
-      <c r="D18" s="88" t="s">
+      <c r="D18" s="97" t="s">
         <v>172</v>
       </c>
-      <c r="E18" s="93" t="s">
+      <c r="E18" s="94" t="s">
         <v>174</v>
       </c>
-      <c r="F18" s="93">
+      <c r="F18" s="94">
         <v>1</v>
       </c>
-      <c r="G18" s="93" t="s">
+      <c r="G18" s="94" t="s">
         <v>153</v>
       </c>
-      <c r="H18" s="93" t="s">
+      <c r="H18" s="94" t="s">
         <v>108</v>
       </c>
-      <c r="I18" s="88" t="s">
+      <c r="I18" s="97" t="s">
         <v>176</v>
       </c>
-      <c r="J18" s="93">
+      <c r="J18" s="94">
         <v>3</v>
       </c>
       <c r="K18" s="57"/>
       <c r="L18" s="66"/>
     </row>
-    <row r="19" spans="1:12" ht="20" customHeight="1">
-      <c r="A19" s="102"/>
+    <row r="19" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="101"/>
       <c r="B19" s="62" t="s">
         <v>169</v>
       </c>
       <c r="C19" s="57">
         <v>2</v>
       </c>
-      <c r="D19" s="100"/>
-      <c r="E19" s="98"/>
-      <c r="F19" s="98"/>
-      <c r="G19" s="98"/>
-      <c r="H19" s="98"/>
-      <c r="I19" s="100"/>
-      <c r="J19" s="98"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="95"/>
+      <c r="G19" s="95"/>
+      <c r="H19" s="95"/>
+      <c r="I19" s="98"/>
+      <c r="J19" s="95"/>
       <c r="K19" s="57"/>
       <c r="L19" s="66"/>
     </row>
-    <row r="20" spans="1:12" ht="20" customHeight="1">
-      <c r="A20" s="102"/>
+    <row r="20" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="101"/>
       <c r="B20" s="62" t="s">
         <v>170</v>
       </c>
       <c r="C20" s="57">
         <v>1</v>
       </c>
-      <c r="D20" s="105"/>
-      <c r="E20" s="104"/>
-      <c r="F20" s="104"/>
-      <c r="G20" s="104"/>
-      <c r="H20" s="98"/>
-      <c r="I20" s="100"/>
-      <c r="J20" s="98"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="103"/>
+      <c r="F20" s="103"/>
+      <c r="G20" s="103"/>
+      <c r="H20" s="95"/>
+      <c r="I20" s="98"/>
+      <c r="J20" s="95"/>
       <c r="K20" s="57"/>
       <c r="L20" s="66"/>
     </row>
-    <row r="21" spans="1:12" ht="20" customHeight="1" thickBot="1">
-      <c r="A21" s="103"/>
+    <row r="21" spans="1:12" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="102"/>
       <c r="B21" s="68" t="s">
         <v>171</v>
       </c>
@@ -4809,17 +4918,37 @@
       <c r="G21" s="69" t="s">
         <v>175</v>
       </c>
-      <c r="H21" s="99"/>
-      <c r="I21" s="101"/>
-      <c r="J21" s="99"/>
+      <c r="H21" s="96"/>
+      <c r="I21" s="99"/>
+      <c r="J21" s="96"/>
       <c r="K21" s="69"/>
       <c r="L21" s="71"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="E22" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="A12:A14"/>
     <mergeCell ref="H18:H21"/>
     <mergeCell ref="I18:I21"/>
     <mergeCell ref="J18:J21"/>
@@ -4835,35 +4964,10 @@
     <mergeCell ref="H15:H17"/>
     <mergeCell ref="I15:I17"/>
     <mergeCell ref="J15:J17"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="J5:J7"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4871,11 +4975,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="28" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="28" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="21.33203125" style="72" customWidth="1"/>
     <col min="2" max="2" width="19.1640625" style="74" customWidth="1"/>
@@ -4887,319 +4991,319 @@
     <col min="8" max="16384" width="8.83203125" style="72"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="73" customFormat="1" ht="28" customHeight="1">
-      <c r="A1" s="107" t="s">
+    <row r="1" spans="1:7" s="73" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="76" t="s">
         <v>177</v>
       </c>
-      <c r="B1" s="108" t="s">
+      <c r="B1" s="77" t="s">
         <v>178</v>
       </c>
-      <c r="C1" s="108"/>
-      <c r="D1" s="109" t="s">
+      <c r="C1" s="77"/>
+      <c r="D1" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="108" t="s">
+      <c r="E1" s="77" t="s">
         <v>193</v>
       </c>
-      <c r="F1" s="108" t="s">
+      <c r="F1" s="77" t="s">
         <v>194</v>
       </c>
       <c r="G1" s="73" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="28" customHeight="1">
-      <c r="A2" s="110" t="s">
+    <row r="2" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="79" t="s">
         <v>190</v>
       </c>
-      <c r="B2" s="111">
+      <c r="B2" s="80">
         <v>8600</v>
       </c>
-      <c r="C2" s="111" t="s">
+      <c r="C2" s="80" t="s">
         <v>201</v>
       </c>
-      <c r="D2" s="112">
+      <c r="D2" s="81">
         <v>8600</v>
       </c>
-      <c r="E2" s="110" t="s">
+      <c r="E2" s="79" t="s">
         <v>195</v>
       </c>
-      <c r="F2" s="110">
+      <c r="F2" s="79">
         <v>16223</v>
       </c>
-      <c r="G2" s="110">
+      <c r="G2" s="79">
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28" customHeight="1">
-      <c r="A3" s="110" t="s">
+    <row r="3" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="79" t="s">
         <v>189</v>
       </c>
-      <c r="B3" s="111">
+      <c r="B3" s="80">
         <v>38000</v>
       </c>
-      <c r="C3" s="111"/>
-      <c r="D3" s="112">
+      <c r="C3" s="80"/>
+      <c r="D3" s="81">
         <v>20000</v>
       </c>
-      <c r="E3" s="110" t="s">
+      <c r="E3" s="79" t="s">
         <v>196</v>
       </c>
-      <c r="F3" s="110">
+      <c r="F3" s="79">
         <v>4160</v>
       </c>
-      <c r="G3" s="110"/>
-    </row>
-    <row r="4" spans="1:7" ht="28" customHeight="1">
-      <c r="A4" s="110" t="s">
+      <c r="G3" s="79"/>
+    </row>
+    <row r="4" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="79" t="s">
         <v>191</v>
       </c>
-      <c r="B4" s="111">
+      <c r="B4" s="80">
         <v>400</v>
       </c>
-      <c r="C4" s="111"/>
-      <c r="D4" s="112">
+      <c r="C4" s="80"/>
+      <c r="D4" s="81">
         <v>400</v>
       </c>
-      <c r="E4" s="110" t="s">
+      <c r="E4" s="79" t="s">
         <v>197</v>
       </c>
-      <c r="F4" s="110">
+      <c r="F4" s="79">
         <v>673</v>
       </c>
-      <c r="G4" s="110">
+      <c r="G4" s="79">
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="28" customHeight="1">
-      <c r="A5" s="110" t="s">
+    <row r="5" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="79" t="s">
         <v>184</v>
       </c>
-      <c r="B5" s="111">
+      <c r="B5" s="80">
         <v>3310</v>
       </c>
-      <c r="C5" s="111"/>
-      <c r="D5" s="112">
+      <c r="C5" s="80"/>
+      <c r="D5" s="81">
         <v>500</v>
       </c>
-      <c r="E5" s="110" t="s">
+      <c r="E5" s="79" t="s">
         <v>198</v>
       </c>
-      <c r="F5" s="110">
+      <c r="F5" s="79">
         <v>585</v>
       </c>
-      <c r="G5" s="110">
+      <c r="G5" s="79">
         <v>500</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="28" customHeight="1">
-      <c r="A6" s="110" t="s">
+    <row r="6" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="79" t="s">
         <v>186</v>
       </c>
-      <c r="B6" s="111">
+      <c r="B6" s="80">
         <v>2350</v>
       </c>
-      <c r="C6" s="111"/>
-      <c r="D6" s="112">
+      <c r="C6" s="80"/>
+      <c r="D6" s="81">
         <v>2350</v>
       </c>
-      <c r="E6" s="110" t="s">
+      <c r="E6" s="79" t="s">
         <v>199</v>
       </c>
-      <c r="F6" s="110">
+      <c r="F6" s="79">
         <v>500</v>
       </c>
-      <c r="G6" s="110"/>
-    </row>
-    <row r="7" spans="1:7" ht="28" customHeight="1">
-      <c r="A7" s="110" t="s">
+      <c r="G6" s="79"/>
+    </row>
+    <row r="7" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="79" t="s">
         <v>185</v>
       </c>
-      <c r="B7" s="111">
+      <c r="B7" s="80">
         <v>2922</v>
       </c>
-      <c r="C7" s="111"/>
-      <c r="D7" s="112">
+      <c r="C7" s="80"/>
+      <c r="D7" s="81">
         <v>3000</v>
       </c>
-      <c r="E7" s="110" t="s">
+      <c r="E7" s="79" t="s">
         <v>200</v>
       </c>
-      <c r="F7" s="110">
+      <c r="F7" s="79">
         <v>479</v>
       </c>
-      <c r="G7" s="110">
+      <c r="G7" s="79">
         <v>500</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="28" customHeight="1">
-      <c r="A8" s="110" t="s">
+    <row r="8" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="79" t="s">
         <v>182</v>
       </c>
-      <c r="B8" s="111">
+      <c r="B8" s="80">
         <v>5820</v>
       </c>
-      <c r="C8" s="111"/>
-      <c r="D8" s="112">
+      <c r="C8" s="80"/>
+      <c r="D8" s="81">
         <v>5000</v>
       </c>
-      <c r="E8" s="110" t="s">
+      <c r="E8" s="79" t="s">
         <v>202</v>
       </c>
-      <c r="F8" s="110">
+      <c r="F8" s="79">
         <v>391</v>
       </c>
-      <c r="G8" s="110">
+      <c r="G8" s="79">
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="28" customHeight="1">
-      <c r="A9" s="110" t="s">
+    <row r="9" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="79" t="s">
         <v>183</v>
       </c>
-      <c r="B9" s="111">
+      <c r="B9" s="80">
         <v>4323</v>
       </c>
-      <c r="C9" s="111"/>
-      <c r="D9" s="112">
+      <c r="C9" s="80"/>
+      <c r="D9" s="81">
         <v>3000</v>
       </c>
-      <c r="E9" s="110" t="s">
+      <c r="E9" s="79" t="s">
         <v>203</v>
       </c>
-      <c r="F9" s="110">
+      <c r="F9" s="79">
         <v>33000</v>
       </c>
-      <c r="G9" s="110">
+      <c r="G9" s="79">
         <v>20000</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="28" customHeight="1">
-      <c r="A10" s="110" t="s">
+    <row r="10" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="79" t="s">
         <v>187</v>
       </c>
-      <c r="B10" s="111">
+      <c r="B10" s="80">
         <v>2160</v>
       </c>
-      <c r="C10" s="111"/>
-      <c r="D10" s="112">
+      <c r="C10" s="80"/>
+      <c r="D10" s="81">
         <v>2000</v>
       </c>
-      <c r="E10" s="110" t="s">
+      <c r="E10" s="79" t="s">
         <v>204</v>
       </c>
-      <c r="F10" s="110">
+      <c r="F10" s="79">
         <v>12540</v>
       </c>
-      <c r="G10" s="110">
+      <c r="G10" s="79">
         <v>10000</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="28" customHeight="1">
-      <c r="A11" s="110" t="s">
+    <row r="11" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="79" t="s">
         <v>188</v>
       </c>
-      <c r="B11" s="111">
+      <c r="B11" s="80">
         <v>850</v>
       </c>
-      <c r="C11" s="111"/>
-      <c r="D11" s="112">
+      <c r="C11" s="80"/>
+      <c r="D11" s="81">
         <v>850</v>
       </c>
-      <c r="E11" s="110" t="s">
+      <c r="E11" s="79" t="s">
         <v>205</v>
       </c>
-      <c r="F11" s="110">
+      <c r="F11" s="79">
         <v>9650</v>
       </c>
-      <c r="G11" s="110">
+      <c r="G11" s="79">
         <v>8000</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="28" customHeight="1">
-      <c r="A12" s="110" t="s">
+    <row r="12" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="79" t="s">
         <v>181</v>
       </c>
-      <c r="B12" s="111">
+      <c r="B12" s="80">
         <v>5893</v>
       </c>
-      <c r="C12" s="111"/>
-      <c r="D12" s="112">
+      <c r="C12" s="80"/>
+      <c r="D12" s="81">
         <v>3000</v>
       </c>
-      <c r="E12" s="110" t="s">
+      <c r="E12" s="79" t="s">
         <v>206</v>
       </c>
-      <c r="F12" s="110">
+      <c r="F12" s="79">
         <v>12197</v>
       </c>
-      <c r="G12" s="110">
+      <c r="G12" s="79">
         <v>9000</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="28" customHeight="1">
-      <c r="A13" s="110" t="s">
+    <row r="13" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="79" t="s">
         <v>179</v>
       </c>
-      <c r="B13" s="111">
+      <c r="B13" s="80">
         <v>16520</v>
       </c>
-      <c r="C13" s="111"/>
-      <c r="D13" s="112">
+      <c r="C13" s="80"/>
+      <c r="D13" s="81">
         <v>8000</v>
       </c>
-      <c r="E13" s="110" t="s">
+      <c r="E13" s="79" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="110">
+      <c r="F13" s="79">
         <v>5149</v>
       </c>
-      <c r="G13" s="110">
+      <c r="G13" s="79">
         <v>4000</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="28" customHeight="1">
-      <c r="A14" s="110" t="s">
+    <row r="14" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="79" t="s">
         <v>180</v>
       </c>
-      <c r="B14" s="111">
+      <c r="B14" s="80">
         <v>10600</v>
       </c>
-      <c r="C14" s="111"/>
-      <c r="D14" s="112">
+      <c r="C14" s="80"/>
+      <c r="D14" s="81">
         <v>6000</v>
       </c>
-      <c r="E14" s="110" t="s">
+      <c r="E14" s="79" t="s">
         <v>83</v>
       </c>
-      <c r="F14" s="110">
+      <c r="F14" s="79">
         <v>4498</v>
       </c>
-      <c r="G14" s="110">
+      <c r="G14" s="79">
         <v>5000</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="75" customFormat="1" ht="28" customHeight="1">
-      <c r="A15" s="113" t="s">
+    <row r="15" spans="1:7" s="75" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="82" t="s">
         <v>192</v>
       </c>
-      <c r="B15" s="114">
+      <c r="B15" s="83">
         <f>SUM(B2:B14)</f>
         <v>101748</v>
       </c>
-      <c r="C15" s="114"/>
-      <c r="D15" s="114">
+      <c r="C15" s="83"/>
+      <c r="D15" s="83">
         <f>SUM(D2:D14)</f>
         <v>62700</v>
       </c>
-      <c r="E15" s="113" t="s">
+      <c r="E15" s="82" t="s">
         <v>192</v>
       </c>
-      <c r="F15" s="114">
+      <c r="F15" s="83">
         <f>SUM(F2:F14)</f>
         <v>100045</v>
       </c>
-      <c r="G15" s="114">
+      <c r="G15" s="83">
         <f>SUM(G2:G14)</f>
         <v>67900</v>
       </c>
@@ -5208,10 +5312,374 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C5" workbookViewId="0">
+      <selection activeCell="I11" activeCellId="1" sqref="F7 I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="58" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="85" t="s">
+        <v>208</v>
+      </c>
+      <c r="B1" s="85">
+        <v>1.5</v>
+      </c>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+    </row>
+    <row r="2" spans="1:9" ht="58" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="85" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2" s="86">
+        <v>42292</v>
+      </c>
+      <c r="C2" s="86">
+        <f ca="1">TODAY()</f>
+        <v>42402</v>
+      </c>
+      <c r="D2" s="85">
+        <f ca="1">DATEDIF(B2,C2,"d")</f>
+        <v>110</v>
+      </c>
+      <c r="E2" s="85">
+        <v>1</v>
+      </c>
+      <c r="F2" s="85"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="85" t="s">
+        <v>211</v>
+      </c>
+      <c r="I2" s="85">
+        <v>17018</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="58" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="85"/>
+      <c r="B3" s="86">
+        <v>42331</v>
+      </c>
+      <c r="C3" s="86">
+        <f ca="1">TODAY()</f>
+        <v>42402</v>
+      </c>
+      <c r="D3" s="85">
+        <f ca="1">DATEDIF(B3,C3,"d")</f>
+        <v>71</v>
+      </c>
+      <c r="E3" s="85">
+        <v>1</v>
+      </c>
+      <c r="F3" s="85">
+        <f ca="1">(D2*E2+D3*E3)*B1</f>
+        <v>271.5</v>
+      </c>
+      <c r="G3" s="84"/>
+      <c r="H3" s="85" t="s">
+        <v>212</v>
+      </c>
+      <c r="I3" s="85">
+        <v>20835</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="58" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="85"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="85" t="s">
+        <v>213</v>
+      </c>
+      <c r="I4" s="85">
+        <f>80+5+1000</f>
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="58" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="85" t="s">
+        <v>209</v>
+      </c>
+      <c r="B5" s="86">
+        <v>42273</v>
+      </c>
+      <c r="C5" s="86">
+        <f ca="1">TODAY()</f>
+        <v>42402</v>
+      </c>
+      <c r="D5" s="85">
+        <f ca="1">DATEDIF(B5,C5,"d")</f>
+        <v>129</v>
+      </c>
+      <c r="E5" s="85">
+        <v>2</v>
+      </c>
+      <c r="F5" s="85">
+        <f ca="1">D5*B1*E5</f>
+        <v>387</v>
+      </c>
+      <c r="G5" s="84"/>
+      <c r="H5" s="85" t="s">
+        <v>214</v>
+      </c>
+      <c r="I5" s="85">
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="58" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="85" t="s">
+        <v>210</v>
+      </c>
+      <c r="B6" s="86">
+        <v>42273</v>
+      </c>
+      <c r="C6" s="86">
+        <f ca="1">TODAY()</f>
+        <v>42402</v>
+      </c>
+      <c r="D6" s="85">
+        <f ca="1">DATEDIF(B6,C6,"d")</f>
+        <v>129</v>
+      </c>
+      <c r="E6" s="85">
+        <v>4.5</v>
+      </c>
+      <c r="F6" s="85">
+        <f ca="1">D6*B1*E6</f>
+        <v>870.75</v>
+      </c>
+      <c r="G6" s="84"/>
+      <c r="H6" s="85" t="s">
+        <v>215</v>
+      </c>
+      <c r="I6" s="85">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="58" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="85"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85">
+        <f>SUM(E2:E6)*B1</f>
+        <v>12.75</v>
+      </c>
+      <c r="F7" s="85">
+        <f ca="1">SUM(F3:F6)</f>
+        <v>1529.25</v>
+      </c>
+      <c r="G7" s="84"/>
+      <c r="H7" s="85" t="s">
+        <v>216</v>
+      </c>
+      <c r="I7" s="85">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="58" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="84"/>
+      <c r="B8" s="84"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="85" t="s">
+        <v>217</v>
+      </c>
+      <c r="I8" s="85">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="58" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="84"/>
+      <c r="B9" s="84"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="85" t="s">
+        <v>218</v>
+      </c>
+      <c r="I9" s="85">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="58" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="84"/>
+      <c r="B10" s="84"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="84"/>
+      <c r="H10" s="85" t="s">
+        <v>219</v>
+      </c>
+      <c r="I10" s="85">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="58" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="84"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="85">
+        <f>SUM(I2:I10)</f>
+        <v>64310</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="58" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="84"/>
+      <c r="B12" s="84"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="84"/>
+      <c r="I12" s="84"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" s="84"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="84"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14" s="84"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="84"/>
+      <c r="I14" s="84"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" s="84"/>
+      <c r="B15" s="84"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="84"/>
+      <c r="I15" s="84"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" s="84"/>
+      <c r="B16" s="84"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="84"/>
+      <c r="H16" s="84"/>
+      <c r="I16" s="84"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A17" s="84"/>
+      <c r="B17" s="84"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="84"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="84"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A18" s="84"/>
+      <c r="B18" s="84"/>
+      <c r="C18" s="84"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="84"/>
+      <c r="F18" s="84"/>
+      <c r="G18" s="84"/>
+      <c r="H18" s="84"/>
+      <c r="I18" s="84"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A19" s="84"/>
+      <c r="B19" s="84"/>
+      <c r="C19" s="84"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="84"/>
+      <c r="G19" s="84"/>
+      <c r="H19" s="84"/>
+      <c r="I19" s="84"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A20" s="84"/>
+      <c r="B20" s="84"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="84"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="84"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="84"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A21" s="84"/>
+      <c r="B21" s="84"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="84"/>
+      <c r="E21" s="84"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="84"/>
+      <c r="H21" s="84"/>
+      <c r="I21" s="84"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A22" s="84"/>
+      <c r="B22" s="84"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="84"/>
+      <c r="E22" s="84"/>
+      <c r="F22" s="84"/>
+      <c r="G22" s="84"/>
+      <c r="H22" s="84"/>
+      <c r="I22" s="84"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/小胡子装修清单.xlsx
+++ b/小胡子装修清单.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="230">
   <si>
     <t>项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -941,6 +941,88 @@
     <t>还信用卡</t>
     <rPh sb="0" eb="1">
       <t>huan'xin'yong'ka</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额</t>
+    <rPh sb="0" eb="1">
+      <t>jin'e</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信用卡</t>
+    <rPh sb="0" eb="1">
+      <t>xin'yong'ka</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维意尾款</t>
+    <rPh sb="0" eb="1">
+      <t>wei'yi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wei'kuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨卫吊顶</t>
+    <rPh sb="0" eb="1">
+      <t>chu'wei</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>diao'd</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橱柜</t>
+    <rPh sb="0" eb="1">
+      <t>chu'gui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大理石</t>
+    <rPh sb="0" eb="1">
+      <t>da'li'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃气</t>
+    <rPh sb="0" eb="1">
+      <t>ran'qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马桶</t>
+    <rPh sb="0" eb="1">
+      <t>ma'tong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门尾款</t>
+    <rPh sb="0" eb="1">
+      <t>men'wei'kuan</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>wei'kuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工程尾款</t>
+    <rPh sb="0" eb="1">
+      <t>gong'cheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wei'kuan</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2333,27 +2415,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2368,42 +2486,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="32">
@@ -4383,7 +4465,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="96" t="s">
         <v>101</v>
       </c>
       <c r="B2" s="57" t="s">
@@ -4395,29 +4477,29 @@
       <c r="D2" s="58" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="116" t="s">
+      <c r="E2" s="94" t="s">
         <v>109</v>
       </c>
-      <c r="F2" s="117">
+      <c r="F2" s="95">
         <v>1</v>
       </c>
-      <c r="G2" s="116" t="s">
+      <c r="G2" s="94" t="s">
         <v>106</v>
       </c>
-      <c r="H2" s="116" t="s">
+      <c r="H2" s="94" t="s">
         <v>108</v>
       </c>
-      <c r="I2" s="116" t="s">
+      <c r="I2" s="94" t="s">
         <v>107</v>
       </c>
-      <c r="J2" s="116">
+      <c r="J2" s="94">
         <v>1</v>
       </c>
       <c r="K2" s="57"/>
       <c r="L2" s="66"/>
     </row>
     <row r="3" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="113"/>
+      <c r="A3" s="97"/>
       <c r="B3" s="57" t="s">
         <v>104</v>
       </c>
@@ -4427,17 +4509,17 @@
       <c r="D3" s="58" t="s">
         <v>105</v>
       </c>
-      <c r="E3" s="116"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="116"/>
-      <c r="H3" s="116"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="116"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
       <c r="K3" s="57"/>
       <c r="L3" s="66"/>
     </row>
     <row r="4" spans="1:12" ht="28" x14ac:dyDescent="0.15">
-      <c r="A4" s="114"/>
+      <c r="A4" s="98"/>
       <c r="B4" s="57" t="s">
         <v>110</v>
       </c>
@@ -4469,7 +4551,7 @@
       <c r="L4" s="66"/>
     </row>
     <row r="5" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="100" t="s">
+      <c r="A5" s="101" t="s">
         <v>115</v>
       </c>
       <c r="B5" s="57" t="s">
@@ -4481,29 +4563,29 @@
       <c r="D5" s="58" t="s">
         <v>120</v>
       </c>
-      <c r="E5" s="97" t="s">
+      <c r="E5" s="99" t="s">
         <v>123</v>
       </c>
-      <c r="F5" s="97">
+      <c r="F5" s="99">
         <v>2</v>
       </c>
       <c r="G5" s="58" t="s">
         <v>124</v>
       </c>
-      <c r="H5" s="94" t="s">
+      <c r="H5" s="104" t="s">
         <v>108</v>
       </c>
       <c r="I5" s="57" t="s">
         <v>127</v>
       </c>
-      <c r="J5" s="94">
+      <c r="J5" s="104">
         <v>8</v>
       </c>
       <c r="K5" s="57"/>
       <c r="L5" s="66"/>
     </row>
     <row r="6" spans="1:12" ht="28" x14ac:dyDescent="0.15">
-      <c r="A6" s="110"/>
+      <c r="A6" s="102"/>
       <c r="B6" s="57" t="s">
         <v>117</v>
       </c>
@@ -4513,21 +4595,21 @@
       <c r="D6" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
       <c r="G6" s="57" t="s">
         <v>125</v>
       </c>
-      <c r="H6" s="107"/>
+      <c r="H6" s="105"/>
       <c r="I6" s="58" t="s">
         <v>128</v>
       </c>
-      <c r="J6" s="107"/>
+      <c r="J6" s="105"/>
       <c r="K6" s="57"/>
       <c r="L6" s="66"/>
     </row>
     <row r="7" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="111"/>
+      <c r="A7" s="103"/>
       <c r="B7" s="57" t="s">
         <v>118</v>
       </c>
@@ -4542,11 +4624,11 @@
       </c>
       <c r="F7" s="59"/>
       <c r="G7" s="57"/>
-      <c r="H7" s="108"/>
+      <c r="H7" s="106"/>
       <c r="I7" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="J7" s="108"/>
+      <c r="J7" s="106"/>
       <c r="K7" s="57"/>
       <c r="L7" s="66"/>
     </row>
@@ -4607,7 +4689,7 @@
       <c r="L9" s="66"/>
     </row>
     <row r="10" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="100" t="s">
+      <c r="A10" s="101" t="s">
         <v>138</v>
       </c>
       <c r="B10" s="57" t="s">
@@ -4628,20 +4710,20 @@
       <c r="G10" s="57" t="s">
         <v>145</v>
       </c>
-      <c r="H10" s="94" t="s">
+      <c r="H10" s="104" t="s">
         <v>108</v>
       </c>
       <c r="I10" s="57" t="s">
         <v>146</v>
       </c>
-      <c r="J10" s="94">
+      <c r="J10" s="104">
         <v>5</v>
       </c>
       <c r="K10" s="57"/>
       <c r="L10" s="66"/>
     </row>
     <row r="11" spans="1:12" ht="28" x14ac:dyDescent="0.15">
-      <c r="A11" s="111"/>
+      <c r="A11" s="103"/>
       <c r="B11" s="57" t="s">
         <v>140</v>
       </c>
@@ -4660,16 +4742,16 @@
       <c r="G11" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="H11" s="108"/>
+      <c r="H11" s="106"/>
       <c r="I11" s="58" t="s">
         <v>147</v>
       </c>
-      <c r="J11" s="108"/>
+      <c r="J11" s="106"/>
       <c r="K11" s="57"/>
       <c r="L11" s="66"/>
     </row>
     <row r="12" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="100" t="s">
+      <c r="A12" s="101" t="s">
         <v>148</v>
       </c>
       <c r="B12" s="57" t="s">
@@ -4681,7 +4763,7 @@
       <c r="D12" s="58" t="s">
         <v>150</v>
       </c>
-      <c r="E12" s="94" t="s">
+      <c r="E12" s="104" t="s">
         <v>144</v>
       </c>
       <c r="F12" s="59">
@@ -4690,20 +4772,20 @@
       <c r="G12" s="57" t="s">
         <v>153</v>
       </c>
-      <c r="H12" s="94" t="s">
+      <c r="H12" s="104" t="s">
         <v>108</v>
       </c>
       <c r="I12" s="57" t="s">
         <v>155</v>
       </c>
-      <c r="J12" s="94">
+      <c r="J12" s="104">
         <v>5</v>
       </c>
       <c r="K12" s="57"/>
       <c r="L12" s="66"/>
     </row>
     <row r="13" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="110"/>
+      <c r="A13" s="102"/>
       <c r="B13" s="57" t="s">
         <v>132</v>
       </c>
@@ -4713,23 +4795,23 @@
       <c r="D13" s="58" t="s">
         <v>151</v>
       </c>
-      <c r="E13" s="107"/>
+      <c r="E13" s="105"/>
       <c r="F13" s="59">
         <v>1</v>
       </c>
       <c r="G13" s="57" t="s">
         <v>154</v>
       </c>
-      <c r="H13" s="107"/>
-      <c r="I13" s="109" t="s">
+      <c r="H13" s="105"/>
+      <c r="I13" s="107" t="s">
         <v>156</v>
       </c>
-      <c r="J13" s="107"/>
+      <c r="J13" s="105"/>
       <c r="K13" s="57"/>
       <c r="L13" s="66"/>
     </row>
     <row r="14" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="111"/>
+      <c r="A14" s="103"/>
       <c r="B14" s="57" t="s">
         <v>149</v>
       </c>
@@ -4744,14 +4826,14 @@
       </c>
       <c r="F14" s="59"/>
       <c r="G14" s="57"/>
-      <c r="H14" s="108"/>
-      <c r="I14" s="106"/>
-      <c r="J14" s="108"/>
+      <c r="H14" s="106"/>
+      <c r="I14" s="108"/>
+      <c r="J14" s="106"/>
       <c r="K14" s="57"/>
       <c r="L14" s="66"/>
     </row>
     <row r="15" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="100" t="s">
+      <c r="A15" s="101" t="s">
         <v>157</v>
       </c>
       <c r="B15" s="57" t="s">
@@ -4763,29 +4845,29 @@
       <c r="D15" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="E15" s="105" t="s">
+      <c r="E15" s="117" t="s">
         <v>164</v>
       </c>
-      <c r="F15" s="94">
+      <c r="F15" s="104">
         <v>1</v>
       </c>
-      <c r="G15" s="94" t="s">
+      <c r="G15" s="104" t="s">
         <v>153</v>
       </c>
-      <c r="H15" s="94" t="s">
+      <c r="H15" s="104" t="s">
         <v>108</v>
       </c>
-      <c r="I15" s="97" t="s">
+      <c r="I15" s="99" t="s">
         <v>167</v>
       </c>
-      <c r="J15" s="94">
+      <c r="J15" s="104">
         <v>8</v>
       </c>
       <c r="K15" s="57"/>
       <c r="L15" s="66"/>
     </row>
     <row r="16" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="101"/>
+      <c r="A16" s="113"/>
       <c r="B16" s="57" t="s">
         <v>159</v>
       </c>
@@ -4795,17 +4877,17 @@
       <c r="D16" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="E16" s="106"/>
-      <c r="F16" s="95"/>
-      <c r="G16" s="103"/>
-      <c r="H16" s="95"/>
-      <c r="I16" s="98"/>
-      <c r="J16" s="95"/>
+      <c r="E16" s="108"/>
+      <c r="F16" s="109"/>
+      <c r="G16" s="115"/>
+      <c r="H16" s="109"/>
+      <c r="I16" s="111"/>
+      <c r="J16" s="109"/>
       <c r="K16" s="57"/>
       <c r="L16" s="66"/>
     </row>
     <row r="17" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="101"/>
+      <c r="A17" s="113"/>
       <c r="B17" s="57" t="s">
         <v>160</v>
       </c>
@@ -4818,18 +4900,18 @@
       <c r="E17" s="57" t="s">
         <v>165</v>
       </c>
-      <c r="F17" s="103"/>
+      <c r="F17" s="115"/>
       <c r="G17" s="57" t="s">
         <v>166</v>
       </c>
-      <c r="H17" s="103"/>
-      <c r="I17" s="104"/>
-      <c r="J17" s="103"/>
+      <c r="H17" s="115"/>
+      <c r="I17" s="116"/>
+      <c r="J17" s="115"/>
       <c r="K17" s="57"/>
       <c r="L17" s="66"/>
     </row>
     <row r="18" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="100" t="s">
+      <c r="A18" s="101" t="s">
         <v>168</v>
       </c>
       <c r="B18" s="62" t="s">
@@ -4838,68 +4920,68 @@
       <c r="C18" s="57">
         <v>1</v>
       </c>
-      <c r="D18" s="97" t="s">
+      <c r="D18" s="99" t="s">
         <v>172</v>
       </c>
-      <c r="E18" s="94" t="s">
+      <c r="E18" s="104" t="s">
         <v>174</v>
       </c>
-      <c r="F18" s="94">
+      <c r="F18" s="104">
         <v>1</v>
       </c>
-      <c r="G18" s="94" t="s">
+      <c r="G18" s="104" t="s">
         <v>153</v>
       </c>
-      <c r="H18" s="94" t="s">
+      <c r="H18" s="104" t="s">
         <v>108</v>
       </c>
-      <c r="I18" s="97" t="s">
+      <c r="I18" s="99" t="s">
         <v>176</v>
       </c>
-      <c r="J18" s="94">
+      <c r="J18" s="104">
         <v>3</v>
       </c>
       <c r="K18" s="57"/>
       <c r="L18" s="66"/>
     </row>
     <row r="19" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="101"/>
+      <c r="A19" s="113"/>
       <c r="B19" s="62" t="s">
         <v>169</v>
       </c>
       <c r="C19" s="57">
         <v>2</v>
       </c>
-      <c r="D19" s="98"/>
-      <c r="E19" s="95"/>
-      <c r="F19" s="95"/>
-      <c r="G19" s="95"/>
-      <c r="H19" s="95"/>
-      <c r="I19" s="98"/>
-      <c r="J19" s="95"/>
+      <c r="D19" s="111"/>
+      <c r="E19" s="109"/>
+      <c r="F19" s="109"/>
+      <c r="G19" s="109"/>
+      <c r="H19" s="109"/>
+      <c r="I19" s="111"/>
+      <c r="J19" s="109"/>
       <c r="K19" s="57"/>
       <c r="L19" s="66"/>
     </row>
     <row r="20" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="101"/>
+      <c r="A20" s="113"/>
       <c r="B20" s="62" t="s">
         <v>170</v>
       </c>
       <c r="C20" s="57">
         <v>1</v>
       </c>
-      <c r="D20" s="104"/>
-      <c r="E20" s="103"/>
-      <c r="F20" s="103"/>
-      <c r="G20" s="103"/>
-      <c r="H20" s="95"/>
-      <c r="I20" s="98"/>
-      <c r="J20" s="95"/>
+      <c r="D20" s="116"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="115"/>
+      <c r="G20" s="115"/>
+      <c r="H20" s="109"/>
+      <c r="I20" s="111"/>
+      <c r="J20" s="109"/>
       <c r="K20" s="57"/>
       <c r="L20" s="66"/>
     </row>
     <row r="21" spans="1:12" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="102"/>
+      <c r="A21" s="114"/>
       <c r="B21" s="68" t="s">
         <v>171</v>
       </c>
@@ -4918,9 +5000,9 @@
       <c r="G21" s="69" t="s">
         <v>175</v>
       </c>
-      <c r="H21" s="96"/>
-      <c r="I21" s="99"/>
-      <c r="J21" s="96"/>
+      <c r="H21" s="110"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="110"/>
       <c r="K21" s="69"/>
       <c r="L21" s="71"/>
     </row>
@@ -4929,26 +5011,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="J5:J7"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="A12:A14"/>
     <mergeCell ref="H18:H21"/>
     <mergeCell ref="I18:I21"/>
     <mergeCell ref="J18:J21"/>
@@ -4964,6 +5026,26 @@
     <mergeCell ref="H15:H17"/>
     <mergeCell ref="I15:I17"/>
     <mergeCell ref="J15:J17"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5317,16 +5399,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C5" workbookViewId="0">
-      <selection activeCell="I11" activeCellId="1" sqref="F7 I11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B15" sqref="B9:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
@@ -5355,11 +5438,11 @@
       </c>
       <c r="C2" s="86">
         <f ca="1">TODAY()</f>
-        <v>42402</v>
+        <v>42443</v>
       </c>
       <c r="D2" s="85">
         <f ca="1">DATEDIF(B2,C2,"d")</f>
-        <v>110</v>
+        <v>151</v>
       </c>
       <c r="E2" s="85">
         <v>1</v>
@@ -5380,18 +5463,18 @@
       </c>
       <c r="C3" s="86">
         <f ca="1">TODAY()</f>
-        <v>42402</v>
+        <v>42443</v>
       </c>
       <c r="D3" s="85">
         <f ca="1">DATEDIF(B3,C3,"d")</f>
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="E3" s="85">
         <v>1</v>
       </c>
       <c r="F3" s="85">
         <f ca="1">(D2*E2+D3*E3)*B1</f>
-        <v>271.5</v>
+        <v>394.5</v>
       </c>
       <c r="G3" s="84"/>
       <c r="H3" s="85" t="s">
@@ -5426,18 +5509,18 @@
       </c>
       <c r="C5" s="86">
         <f ca="1">TODAY()</f>
-        <v>42402</v>
+        <v>42443</v>
       </c>
       <c r="D5" s="85">
         <f ca="1">DATEDIF(B5,C5,"d")</f>
-        <v>129</v>
+        <v>170</v>
       </c>
       <c r="E5" s="85">
         <v>2</v>
       </c>
       <c r="F5" s="85">
         <f ca="1">D5*B1*E5</f>
-        <v>387</v>
+        <v>510</v>
       </c>
       <c r="G5" s="84"/>
       <c r="H5" s="85" t="s">
@@ -5456,18 +5539,18 @@
       </c>
       <c r="C6" s="86">
         <f ca="1">TODAY()</f>
-        <v>42402</v>
+        <v>42443</v>
       </c>
       <c r="D6" s="85">
         <f ca="1">DATEDIF(B6,C6,"d")</f>
-        <v>129</v>
+        <v>170</v>
       </c>
       <c r="E6" s="85">
         <v>4.5</v>
       </c>
       <c r="F6" s="85">
         <f ca="1">D6*B1*E6</f>
-        <v>870.75</v>
+        <v>1147.5</v>
       </c>
       <c r="G6" s="84"/>
       <c r="H6" s="85" t="s">
@@ -5488,7 +5571,7 @@
       </c>
       <c r="F7" s="85">
         <f ca="1">SUM(F3:F6)</f>
-        <v>1529.25</v>
+        <v>2052</v>
       </c>
       <c r="G7" s="84"/>
       <c r="H7" s="85" t="s">
@@ -5498,7 +5581,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="58" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="84"/>
       <c r="B8" s="84"/>
       <c r="C8" s="84"/>
@@ -5513,9 +5596,13 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="58" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="84"/>
-      <c r="B9" s="84"/>
+    <row r="9" spans="1:9" ht="43" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="84" t="s">
+        <v>220</v>
+      </c>
+      <c r="B9" s="84">
+        <v>77500</v>
+      </c>
       <c r="C9" s="84"/>
       <c r="D9" s="84"/>
       <c r="E9" s="84"/>
@@ -5529,8 +5616,12 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="58" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="84"/>
-      <c r="B10" s="84"/>
+      <c r="A10" s="84" t="s">
+        <v>221</v>
+      </c>
+      <c r="B10" s="84">
+        <v>-52500</v>
+      </c>
       <c r="C10" s="84"/>
       <c r="D10" s="84"/>
       <c r="E10" s="84"/>
@@ -5544,8 +5635,12 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="58" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="84"/>
-      <c r="B11" s="84"/>
+      <c r="A11" s="84" t="s">
+        <v>222</v>
+      </c>
+      <c r="B11" s="84">
+        <v>-18000</v>
+      </c>
       <c r="C11" s="84"/>
       <c r="D11" s="84"/>
       <c r="E11" s="84"/>
@@ -5558,8 +5653,12 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="58" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="84"/>
-      <c r="B12" s="84"/>
+      <c r="A12" s="84" t="s">
+        <v>223</v>
+      </c>
+      <c r="B12" s="84">
+        <v>-2500</v>
+      </c>
       <c r="C12" s="84"/>
       <c r="D12" s="84"/>
       <c r="E12" s="84"/>
@@ -5569,8 +5668,12 @@
       <c r="I12" s="84"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="84"/>
-      <c r="B13" s="84"/>
+      <c r="A13" s="84" t="s">
+        <v>224</v>
+      </c>
+      <c r="B13" s="84">
+        <v>-7500</v>
+      </c>
       <c r="C13" s="84"/>
       <c r="D13" s="84"/>
       <c r="E13" s="84"/>
@@ -5580,8 +5683,12 @@
       <c r="I13" s="84"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="84"/>
-      <c r="B14" s="84"/>
+      <c r="A14" s="84" t="s">
+        <v>225</v>
+      </c>
+      <c r="B14" s="84">
+        <v>-1060</v>
+      </c>
       <c r="C14" s="84"/>
       <c r="D14" s="84"/>
       <c r="E14" s="84"/>
@@ -5591,8 +5698,12 @@
       <c r="I14" s="84"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="84"/>
-      <c r="B15" s="84"/>
+      <c r="A15" s="84" t="s">
+        <v>228</v>
+      </c>
+      <c r="B15" s="84">
+        <v>-3500</v>
+      </c>
       <c r="C15" s="84"/>
       <c r="D15" s="84"/>
       <c r="E15" s="84"/>
@@ -5613,8 +5724,12 @@
       <c r="I16" s="84"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" s="84"/>
-      <c r="B17" s="84"/>
+      <c r="A17" s="84" t="s">
+        <v>227</v>
+      </c>
+      <c r="B17" s="84">
+        <v>-1000</v>
+      </c>
       <c r="C17" s="84"/>
       <c r="D17" s="84"/>
       <c r="E17" s="84"/>
@@ -5624,8 +5739,12 @@
       <c r="I17" s="84"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18" s="84"/>
-      <c r="B18" s="84"/>
+      <c r="A18" s="84" t="s">
+        <v>226</v>
+      </c>
+      <c r="B18" s="84">
+        <v>-3500</v>
+      </c>
       <c r="C18" s="84"/>
       <c r="D18" s="84"/>
       <c r="E18" s="84"/>
@@ -5635,8 +5754,12 @@
       <c r="I18" s="84"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A19" s="84"/>
-      <c r="B19" s="84"/>
+      <c r="A19" s="84" t="s">
+        <v>229</v>
+      </c>
+      <c r="B19" s="84">
+        <v>-7500</v>
+      </c>
       <c r="C19" s="84"/>
       <c r="D19" s="84"/>
       <c r="E19" s="84"/>
@@ -5656,28 +5779,6 @@
       <c r="H20" s="84"/>
       <c r="I20" s="84"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A21" s="84"/>
-      <c r="B21" s="84"/>
-      <c r="C21" s="84"/>
-      <c r="D21" s="84"/>
-      <c r="E21" s="84"/>
-      <c r="F21" s="84"/>
-      <c r="G21" s="84"/>
-      <c r="H21" s="84"/>
-      <c r="I21" s="84"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A22" s="84"/>
-      <c r="B22" s="84"/>
-      <c r="C22" s="84"/>
-      <c r="D22" s="84"/>
-      <c r="E22" s="84"/>
-      <c r="F22" s="84"/>
-      <c r="G22" s="84"/>
-      <c r="H22" s="84"/>
-      <c r="I22" s="84"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
